--- a/Crystal Lab codes/results_frequency_10sec.xlsx
+++ b/Crystal Lab codes/results_frequency_10sec.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79218\Git\Python_tasks_algorithm\Crystal Lab codes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B0F3C-E231-4091-B78C-E8AEC097C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="10sec-20kHz" sheetId="1" r:id="rId1"/>
@@ -19,23 +13,12 @@
     <sheet name="10sec-80kHz" sheetId="9" r:id="rId4"/>
     <sheet name="10sec-100kHz" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="42">
   <si>
     <t>Length</t>
   </si>
@@ -162,950 +145,11 @@
   <si>
     <t>всего частиц:</t>
   </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>24.037</t>
-  </si>
-  <si>
-    <t>33.333</t>
-  </si>
-  <si>
-    <t>33.993</t>
-  </si>
-  <si>
-    <t>35.901</t>
-  </si>
-  <si>
-    <t>36.056</t>
-  </si>
-  <si>
-    <t>38.873</t>
-  </si>
-  <si>
-    <t>40.311</t>
-  </si>
-  <si>
-    <t>42.687</t>
-  </si>
-  <si>
-    <t>43.333</t>
-  </si>
-  <si>
-    <t>46.667</t>
-  </si>
-  <si>
-    <t>48.074</t>
-  </si>
-  <si>
-    <t>50.442</t>
-  </si>
-  <si>
-    <t>50.998</t>
-  </si>
-  <si>
-    <t>52.068</t>
-  </si>
-  <si>
-    <t>53.748</t>
-  </si>
-  <si>
-    <t>54.975</t>
-  </si>
-  <si>
-    <t>56.667</t>
-  </si>
-  <si>
-    <t>59.628</t>
-  </si>
-  <si>
-    <t>60.369</t>
-  </si>
-  <si>
-    <t>65.952</t>
-  </si>
-  <si>
-    <t>66.999</t>
-  </si>
-  <si>
-    <t>71.184</t>
-  </si>
-  <si>
-    <t>73.333</t>
-  </si>
-  <si>
-    <t>80.46</t>
-  </si>
-  <si>
-    <t>81.277</t>
-  </si>
-  <si>
-    <t>81.989</t>
-  </si>
-  <si>
-    <t>82.462</t>
-  </si>
-  <si>
-    <t>91.53</t>
-  </si>
-  <si>
-    <t>92.67</t>
-  </si>
-  <si>
-    <t>95.879</t>
-  </si>
-  <si>
-    <t>96.896</t>
-  </si>
-  <si>
-    <t>101.335</t>
-  </si>
-  <si>
-    <t>105.88</t>
-  </si>
-  <si>
-    <t>109.801</t>
-  </si>
-  <si>
-    <t>113.333</t>
-  </si>
-  <si>
-    <t>114.698</t>
-  </si>
-  <si>
-    <t>118.341</t>
-  </si>
-  <si>
-    <t>119.789</t>
-  </si>
-  <si>
-    <t>126.348</t>
-  </si>
-  <si>
-    <t>128.236</t>
-  </si>
-  <si>
-    <t>131.055</t>
-  </si>
-  <si>
-    <t>138.409</t>
-  </si>
-  <si>
-    <t>141.421</t>
-  </si>
-  <si>
-    <t>142.668</t>
-  </si>
-  <si>
-    <t>146.211</t>
-  </si>
-  <si>
-    <t>146.804</t>
-  </si>
-  <si>
-    <t>149.153</t>
-  </si>
-  <si>
-    <t>151.183</t>
-  </si>
-  <si>
-    <t>153.352</t>
-  </si>
-  <si>
-    <t>154.745</t>
-  </si>
-  <si>
-    <t>155.282</t>
-  </si>
-  <si>
-    <t>155.635</t>
-  </si>
-  <si>
-    <t>156.339</t>
-  </si>
-  <si>
-    <t>159.172</t>
-  </si>
-  <si>
-    <t>164.941</t>
-  </si>
-  <si>
-    <t>169.898</t>
-  </si>
-  <si>
-    <t>173.01</t>
-  </si>
-  <si>
-    <t>173.611</t>
-  </si>
-  <si>
-    <t>195.739</t>
-  </si>
-  <si>
-    <t>196.419</t>
-  </si>
-  <si>
-    <t>202.464</t>
-  </si>
-  <si>
-    <t>203.333</t>
-  </si>
-  <si>
-    <t>203.679</t>
-  </si>
-  <si>
-    <t>207.612</t>
-  </si>
-  <si>
-    <t>208.333</t>
-  </si>
-  <si>
-    <t>220.971</t>
-  </si>
-  <si>
-    <t>221.561</t>
-  </si>
-  <si>
-    <t>222.389</t>
-  </si>
-  <si>
-    <t>223.178</t>
-  </si>
-  <si>
-    <t>225.672</t>
-  </si>
-  <si>
-    <t>232.924</t>
-  </si>
-  <si>
-    <t>235.842</t>
-  </si>
-  <si>
-    <t>236.96</t>
-  </si>
-  <si>
-    <t>237.393</t>
-  </si>
-  <si>
-    <t>239.889</t>
-  </si>
-  <si>
-    <t>243.056</t>
-  </si>
-  <si>
-    <t>244.674</t>
-  </si>
-  <si>
-    <t>245.523</t>
-  </si>
-  <si>
-    <t>245.945</t>
-  </si>
-  <si>
-    <t>245.988</t>
-  </si>
-  <si>
-    <t>249.519</t>
-  </si>
-  <si>
-    <t>250.386</t>
-  </si>
-  <si>
-    <t>252.782</t>
-  </si>
-  <si>
-    <t>253.135</t>
-  </si>
-  <si>
-    <t>260.417</t>
-  </si>
-  <si>
-    <t>263.522</t>
-  </si>
-  <si>
-    <t>264.437</t>
-  </si>
-  <si>
-    <t>264.911</t>
-  </si>
-  <si>
-    <t>271.186</t>
-  </si>
-  <si>
-    <t>271.189</t>
-  </si>
-  <si>
-    <t>276.817</t>
-  </si>
-  <si>
-    <t>278.971</t>
-  </si>
-  <si>
-    <t>279.94</t>
-  </si>
-  <si>
-    <t>285.336</t>
-  </si>
-  <si>
-    <t>286.327</t>
-  </si>
-  <si>
-    <t>287.356</t>
-  </si>
-  <si>
-    <t>293.608</t>
-  </si>
-  <si>
-    <t>294.628</t>
-  </si>
-  <si>
-    <t>295.64</t>
-  </si>
-  <si>
-    <t>296.539</t>
-  </si>
-  <si>
-    <t>297.658</t>
-  </si>
-  <si>
-    <t>298.692</t>
-  </si>
-  <si>
-    <t>309.279</t>
-  </si>
-  <si>
-    <t>309.49</t>
-  </si>
-  <si>
-    <t>310.565</t>
-  </si>
-  <si>
-    <t>312.5</t>
-  </si>
-  <si>
-    <t>313.732</t>
-  </si>
-  <si>
-    <t>314.423</t>
-  </si>
-  <si>
-    <t>316.546</t>
-  </si>
-  <si>
-    <t>317.083</t>
-  </si>
-  <si>
-    <t>317.915</t>
-  </si>
-  <si>
-    <t>319.015</t>
-  </si>
-  <si>
-    <t>320.123</t>
-  </si>
-  <si>
-    <t>326.435</t>
-  </si>
-  <si>
-    <t>327.569</t>
-  </si>
-  <si>
-    <t>329.404</t>
-  </si>
-  <si>
-    <t>340.261</t>
-  </si>
-  <si>
-    <t>340.791</t>
-  </si>
-  <si>
-    <t>341.168</t>
-  </si>
-  <si>
-    <t>342.543</t>
-  </si>
-  <si>
-    <t>346.021</t>
-  </si>
-  <si>
-    <t>347.222</t>
-  </si>
-  <si>
-    <t>347.747</t>
-  </si>
-  <si>
-    <t>354.099</t>
-  </si>
-  <si>
-    <t>356.25</t>
-  </si>
-  <si>
-    <t>357.487</t>
-  </si>
-  <si>
-    <t>359.68</t>
-  </si>
-  <si>
-    <t>361.256</t>
-  </si>
-  <si>
-    <t>362.511</t>
-  </si>
-  <si>
-    <t>367.825</t>
-  </si>
-  <si>
-    <t>368.285</t>
-  </si>
-  <si>
-    <t>372.676</t>
-  </si>
-  <si>
-    <t>374.279</t>
-  </si>
-  <si>
-    <t>375.578</t>
-  </si>
-  <si>
-    <t>380.623</t>
-  </si>
-  <si>
-    <t>381.944</t>
-  </si>
-  <si>
-    <t>386.214</t>
-  </si>
-  <si>
-    <t>386.863</t>
-  </si>
-  <si>
-    <t>392.837</t>
-  </si>
-  <si>
-    <t>394.524</t>
-  </si>
-  <si>
-    <t>395.008</t>
-  </si>
-  <si>
-    <t>395.894</t>
-  </si>
-  <si>
-    <t>397.01</t>
-  </si>
-  <si>
-    <t>400.983</t>
-  </si>
-  <si>
-    <t>406.784</t>
-  </si>
-  <si>
-    <t>415.225</t>
-  </si>
-  <si>
-    <t>416.664</t>
-  </si>
-  <si>
-    <t>416.667</t>
-  </si>
-  <si>
-    <t>418.098</t>
-  </si>
-  <si>
-    <t>420.952</t>
-  </si>
-  <si>
-    <t>423.839</t>
-  </si>
-  <si>
-    <t>428.004</t>
-  </si>
-  <si>
-    <t>429.49</t>
-  </si>
-  <si>
-    <t>437.685</t>
-  </si>
-  <si>
-    <t>441.942</t>
-  </si>
-  <si>
-    <t>443.123</t>
-  </si>
-  <si>
-    <t>447.095</t>
-  </si>
-  <si>
-    <t>448.038</t>
-  </si>
-  <si>
-    <t>449.827</t>
-  </si>
-  <si>
-    <t>451.156</t>
-  </si>
-  <si>
-    <t>451.389</t>
-  </si>
-  <si>
-    <t>455.119</t>
-  </si>
-  <si>
-    <t>456.586</t>
-  </si>
-  <si>
-    <t>462.808</t>
-  </si>
-  <si>
-    <t>465.482</t>
-  </si>
-  <si>
-    <t>465.523</t>
-  </si>
-  <si>
-    <t>465.847</t>
-  </si>
-  <si>
-    <t>468.75</t>
-  </si>
-  <si>
-    <t>470.639</t>
-  </si>
-  <si>
-    <t>480.707</t>
-  </si>
-  <si>
-    <t>482.377</t>
-  </si>
-  <si>
-    <t>486.111</t>
-  </si>
-  <si>
-    <t>487.35</t>
-  </si>
-  <si>
-    <t>489.347</t>
-  </si>
-  <si>
-    <t>491.353</t>
-  </si>
-  <si>
-    <t>491.788</t>
-  </si>
-  <si>
-    <t>495.426</t>
-  </si>
-  <si>
-    <t>497.147</t>
-  </si>
-  <si>
-    <t>499.038</t>
-  </si>
-  <si>
-    <t>500.771</t>
-  </si>
-  <si>
-    <t>503.124</t>
-  </si>
-  <si>
-    <t>503.814</t>
-  </si>
-  <si>
-    <t>512.961</t>
-  </si>
-  <si>
-    <t>515.599</t>
-  </si>
-  <si>
-    <t>516.183</t>
-  </si>
-  <si>
-    <t>519.031</t>
-  </si>
-  <si>
-    <t>520.833</t>
-  </si>
-  <si>
-    <t>523.431</t>
-  </si>
-  <si>
-    <t>524.219</t>
-  </si>
-  <si>
-    <t>529.31</t>
-  </si>
-  <si>
-    <t>531.148</t>
-  </si>
-  <si>
-    <t>536.231</t>
-  </si>
-  <si>
-    <t>537.169</t>
-  </si>
-  <si>
-    <t>540.502</t>
-  </si>
-  <si>
-    <t>542.378</t>
-  </si>
-  <si>
-    <t>553.633</t>
-  </si>
-  <si>
-    <t>557.942</t>
-  </si>
-  <si>
-    <t>559.879</t>
-  </si>
-  <si>
-    <t>560.955</t>
-  </si>
-  <si>
-    <t>561.221</t>
-  </si>
-  <si>
-    <t>563.281</t>
-  </si>
-  <si>
-    <t>569.487</t>
-  </si>
-  <si>
-    <t>570.672</t>
-  </si>
-  <si>
-    <t>572.917</t>
-  </si>
-  <si>
-    <t>575.893</t>
-  </si>
-  <si>
-    <t>582.309</t>
-  </si>
-  <si>
-    <t>588.235</t>
-  </si>
-  <si>
-    <t>590.278</t>
-  </si>
-  <si>
-    <t>591.281</t>
-  </si>
-  <si>
-    <t>593.375</t>
-  </si>
-  <si>
-    <t>593.841</t>
-  </si>
-  <si>
-    <t>595.317</t>
-  </si>
-  <si>
-    <t>597.384</t>
-  </si>
-  <si>
-    <t>599.398</t>
-  </si>
-  <si>
-    <t>604.299</t>
-  </si>
-  <si>
-    <t>605.289</t>
-  </si>
-  <si>
-    <t>607.391</t>
-  </si>
-  <si>
-    <t>616.072</t>
-  </si>
-  <si>
-    <t>616.846</t>
-  </si>
-  <si>
-    <t>623.798</t>
-  </si>
-  <si>
-    <t>625.964</t>
-  </si>
-  <si>
-    <t>630.909</t>
-  </si>
-  <si>
-    <t>631.429</t>
-  </si>
-  <si>
-    <t>633.621</t>
-  </si>
-  <si>
-    <t>635.758</t>
-  </si>
-  <si>
-    <t>638.031</t>
-  </si>
-  <si>
-    <t>638.36</t>
-  </si>
-  <si>
-    <t>644.235</t>
-  </si>
-  <si>
-    <t>651.553</t>
-  </si>
-  <si>
-    <t>656.528</t>
-  </si>
-  <si>
-    <t>664.684</t>
-  </si>
-  <si>
-    <t>666.992</t>
-  </si>
-  <si>
-    <t>667.895</t>
-  </si>
-  <si>
-    <t>671.851</t>
-  </si>
-  <si>
-    <t>677.083</t>
-  </si>
-  <si>
-    <t>677.267</t>
-  </si>
-  <si>
-    <t>682.46</t>
-  </si>
-  <si>
-    <t>682.917</t>
-  </si>
-  <si>
-    <t>685.086</t>
-  </si>
-  <si>
-    <t>689.216</t>
-  </si>
-  <si>
-    <t>692.042</t>
-  </si>
-  <si>
-    <t>694.444</t>
-  </si>
-  <si>
-    <t>694.878</t>
-  </si>
-  <si>
-    <t>698.033</t>
-  </si>
-  <si>
-    <t>711.445</t>
-  </si>
-  <si>
-    <t>713.34</t>
-  </si>
-  <si>
-    <t>719.794</t>
-  </si>
-  <si>
-    <t>722.513</t>
-  </si>
-  <si>
-    <t>723.565</t>
-  </si>
-  <si>
-    <t>729.167</t>
-  </si>
-  <si>
-    <t>736.57</t>
-  </si>
-  <si>
-    <t>745.72</t>
-  </si>
-  <si>
-    <t>748.557</t>
-  </si>
-  <si>
-    <t>751.157</t>
-  </si>
-  <si>
-    <t>758.345</t>
-  </si>
-  <si>
-    <t>761.518</t>
-  </si>
-  <si>
-    <t>762.309</t>
-  </si>
-  <si>
-    <t>768.609</t>
-  </si>
-  <si>
-    <t>769.428</t>
-  </si>
-  <si>
-    <t>775.17</t>
-  </si>
-  <si>
-    <t>776.412</t>
-  </si>
-  <si>
-    <t>784.483</t>
-  </si>
-  <si>
-    <t>788.76</t>
-  </si>
-  <si>
-    <t>791.788</t>
-  </si>
-  <si>
-    <t>793.31</t>
-  </si>
-  <si>
-    <t>796.6</t>
-  </si>
-  <si>
-    <t>814.715</t>
-  </si>
-  <si>
-    <t>833.333</t>
-  </si>
-  <si>
-    <t>834.959</t>
-  </si>
-  <si>
-    <t>841.432</t>
-  </si>
-  <si>
-    <t>867.816</t>
-  </si>
-  <si>
-    <t>868.056</t>
-  </si>
-  <si>
-    <t>873.076</t>
-  </si>
-  <si>
-    <t>885.246</t>
-  </si>
-  <si>
-    <t>896.076</t>
-  </si>
-  <si>
-    <t>899.098</t>
-  </si>
-  <si>
-    <t>941.278</t>
-  </si>
-  <si>
-    <t>950.432</t>
-  </si>
-  <si>
-    <t>957.855</t>
-  </si>
-  <si>
-    <t>959.545</t>
-  </si>
-  <si>
-    <t>960.369</t>
-  </si>
-  <si>
-    <t>972.997</t>
-  </si>
-  <si>
-    <t>978.695</t>
-  </si>
-  <si>
-    <t>984.792</t>
-  </si>
-  <si>
-    <t>990.953</t>
-  </si>
-  <si>
-    <t>1000.488</t>
-  </si>
-  <si>
-    <t>1001.843</t>
-  </si>
-  <si>
-    <t>1005.844</t>
-  </si>
-  <si>
-    <t>1017.678</t>
-  </si>
-  <si>
-    <t>1031.197</t>
-  </si>
-  <si>
-    <t>1050.673</t>
-  </si>
-  <si>
-    <t>1053.32</t>
-  </si>
-  <si>
-    <t>1054.607</t>
-  </si>
-  <si>
-    <t>1073.725</t>
-  </si>
-  <si>
-    <t>1078.068</t>
-  </si>
-  <si>
-    <t>1081.003</t>
-  </si>
-  <si>
-    <t>1093.75</t>
-  </si>
-  <si>
-    <t>1184.584</t>
-  </si>
-  <si>
-    <t>1189.965</t>
-  </si>
-  <si>
-    <t>1199.15</t>
-  </si>
-  <si>
-    <t>1202.437</t>
-  </si>
-  <si>
-    <t>1211.073</t>
-  </si>
-  <si>
-    <t>1215.898</t>
-  </si>
-  <si>
-    <t>1232.246</t>
-  </si>
-  <si>
-    <t>1324.405</t>
-  </si>
-  <si>
-    <t>1354.167</t>
-  </si>
-  <si>
-    <t>1421.598</t>
-  </si>
-  <si>
-    <t>1453.287</t>
-  </si>
-  <si>
-    <t>1506.977</t>
-  </si>
-  <si>
-    <t>1570.293</t>
-  </si>
-  <si>
-    <t>3719.859</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1652,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1661,27 +705,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1713,15 +756,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1735,6 +775,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1906,11 +947,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E80-48FA-869E-24FA0580ED1C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1931,7 +967,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1972,7 +1007,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1986,6 +1021,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2097,11 +1133,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6022-4945-8608-E94451606C24}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2122,7 +1153,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2163,7 +1193,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2177,6 +1207,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2288,11 +1319,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA61-4D99-A924-B1E5DE80F88F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2313,7 +1339,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2354,7 +1379,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2368,6 +1393,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2549,11 +1575,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E62F-4426-B8A0-92E30E8CFE2F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2574,7 +1595,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2615,7 +1635,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2629,6 +1649,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2740,11 +1761,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FB8-480E-BB9D-0BA65C0333D0}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2765,7 +1781,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2806,7 +1821,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3001,11 +2016,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-34FC-4593-AB32-79F44BC482F6}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3026,7 +2036,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3067,7 +2076,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3192,11 +2201,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCB8-4B07-B978-78A45C08AFD8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3217,7 +2221,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3258,7 +2261,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3453,11 +2456,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E8B-40EF-A47A-9CC9D7B0A2F0}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3478,7 +2476,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3519,7 +2516,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3644,11 +2641,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5046-44BA-ABFC-2F0F463EB573}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3669,7 +2661,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3710,7 +2701,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3905,11 +2896,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AEA0-43BC-9079-E4F268CA7748}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3930,7 +2916,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3987,13 +2972,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4023,13 +3002,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4064,13 +3037,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4102,13 +3069,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4145,13 +3106,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4183,13 +3138,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4226,13 +3175,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4264,13 +3207,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4307,13 +3244,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4345,13 +3276,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4414,7 +3339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4447,26 +3372,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4499,23 +3407,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4691,32 +3582,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="8"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
     <col min="5" max="5" width="7.36328125" customWidth="1"/>
     <col min="7" max="7" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
-        <v>43</v>
+      <c r="B2">
+        <v>24.036999999999999</v>
       </c>
       <c r="C2">
         <f>19</f>
@@ -4749,7 +3636,7 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="8">
+      <c r="B3">
         <v>30</v>
       </c>
       <c r="C3">
@@ -4776,8 +3663,8 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>44</v>
+      <c r="B4">
+        <v>33.332999999999998</v>
       </c>
       <c r="C4">
         <f>19</f>
@@ -4803,8 +3690,8 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
-        <v>44</v>
+      <c r="B5">
+        <v>33.332999999999998</v>
       </c>
       <c r="C5">
         <f>19</f>
@@ -4830,8 +3717,8 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
-        <v>44</v>
+      <c r="B6">
+        <v>33.332999999999998</v>
       </c>
       <c r="C6">
         <f>19</f>
@@ -4857,8 +3744,8 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
-        <v>45</v>
+      <c r="B7">
+        <v>33.993000000000002</v>
       </c>
       <c r="C7">
         <f>19</f>
@@ -4884,8 +3771,8 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>46</v>
+      <c r="B8">
+        <v>35.901000000000003</v>
       </c>
       <c r="C8">
         <f>19</f>
@@ -4911,8 +3798,8 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>46</v>
+      <c r="B9">
+        <v>35.901000000000003</v>
       </c>
       <c r="C9">
         <f>19</f>
@@ -4938,8 +3825,8 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>47</v>
+      <c r="B10">
+        <v>36.055999999999997</v>
       </c>
       <c r="C10">
         <f>19</f>
@@ -4965,8 +3852,8 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>48</v>
+      <c r="B11">
+        <v>38.872999999999998</v>
       </c>
       <c r="C11">
         <f>19</f>
@@ -4991,8 +3878,8 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
-        <v>48</v>
+      <c r="B12">
+        <v>38.872999999999998</v>
       </c>
       <c r="C12">
         <f>19</f>
@@ -5018,7 +3905,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+      <c r="B13">
         <v>40</v>
       </c>
       <c r="C13">
@@ -5045,7 +3932,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
+      <c r="B14">
         <v>40</v>
       </c>
       <c r="C14">
@@ -5072,7 +3959,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
+      <c r="B15">
         <v>40</v>
       </c>
       <c r="C15">
@@ -5092,8 +3979,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
-        <v>49</v>
+      <c r="B16">
+        <v>40.311</v>
       </c>
       <c r="C16">
         <f>19</f>
@@ -5112,8 +3999,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
-        <v>50</v>
+      <c r="B17">
+        <v>42.686999999999998</v>
       </c>
       <c r="C17">
         <f>19</f>
@@ -5132,8 +4019,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="8" t="s">
-        <v>51</v>
+      <c r="B18">
+        <v>43.332999999999998</v>
       </c>
       <c r="C18">
         <f>19</f>
@@ -5152,8 +4039,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="8" t="s">
-        <v>52</v>
+      <c r="B19">
+        <v>46.667000000000002</v>
       </c>
       <c r="C19">
         <f>19</f>
@@ -5172,8 +4059,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="8" t="s">
-        <v>53</v>
+      <c r="B20">
+        <v>48.073999999999998</v>
       </c>
       <c r="C20">
         <f>19</f>
@@ -5192,8 +4079,8 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="8" t="s">
-        <v>54</v>
+      <c r="B21">
+        <v>50.442</v>
       </c>
       <c r="C21">
         <f>24</f>
@@ -5212,8 +4099,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="8" t="s">
-        <v>55</v>
+      <c r="B22">
+        <v>50.997999999999998</v>
       </c>
       <c r="C22">
         <f>24</f>
@@ -5232,8 +4119,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="8" t="s">
-        <v>56</v>
+      <c r="B23">
+        <v>52.067999999999998</v>
       </c>
       <c r="C23">
         <f>24</f>
@@ -5252,8 +4139,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="8" t="s">
-        <v>56</v>
+      <c r="B24">
+        <v>52.067999999999998</v>
       </c>
       <c r="C24">
         <f>24</f>
@@ -5272,8 +4159,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="8" t="s">
-        <v>57</v>
+      <c r="B25">
+        <v>53.747999999999998</v>
       </c>
       <c r="C25">
         <f>24</f>
@@ -5281,8 +4168,8 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="8" t="s">
-        <v>58</v>
+      <c r="B26">
+        <v>54.975000000000001</v>
       </c>
       <c r="C26">
         <f>24</f>
@@ -5290,8 +4177,8 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
-        <v>58</v>
+      <c r="B27">
+        <v>54.975000000000001</v>
       </c>
       <c r="C27">
         <f>24</f>
@@ -5299,8 +4186,8 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="8" t="s">
-        <v>59</v>
+      <c r="B28">
+        <v>56.667000000000002</v>
       </c>
       <c r="C28">
         <f>24</f>
@@ -5308,8 +4195,8 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>60</v>
+      <c r="B29">
+        <v>59.628</v>
       </c>
       <c r="C29">
         <f>24</f>
@@ -5317,8 +4204,8 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="8" t="s">
-        <v>60</v>
+      <c r="B30">
+        <v>59.628</v>
       </c>
       <c r="C30">
         <f>24</f>
@@ -5326,8 +4213,8 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
-        <v>60</v>
+      <c r="B31">
+        <v>59.628</v>
       </c>
       <c r="C31">
         <f>24</f>
@@ -5338,12 +4225,12 @@
       </c>
       <c r="H31" s="7">
         <f>SUMPRODUCT(B2:B421,C2:C421)/SUM(C2:C421)</f>
-        <v>2.2763498704921301</v>
+        <v>398.84598565451267</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="8" t="s">
-        <v>61</v>
+      <c r="B32">
+        <v>60.369</v>
       </c>
       <c r="C32">
         <f>24</f>
@@ -5354,12 +4241,12 @@
       </c>
       <c r="H32" s="4">
         <f>AVERAGE(B2:B421)</f>
-        <v>280</v>
+        <v>462.81675714285763</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="8" t="s">
-        <v>62</v>
+      <c r="B33">
+        <v>65.951999999999998</v>
       </c>
       <c r="C33">
         <f>24</f>
@@ -5370,12 +4257,12 @@
       </c>
       <c r="H33" s="4">
         <f>_xlfn.STDEV.P(B2:B421)</f>
-        <v>485.01546367100502</v>
+        <v>339.21241944104895</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="8" t="s">
-        <v>63</v>
+      <c r="B34">
+        <v>66.998999999999995</v>
       </c>
       <c r="C34">
         <f>24</f>
@@ -5386,12 +4273,12 @@
       </c>
       <c r="H34" s="4">
         <f>100*H33/H32</f>
-        <v>173.21980845393037</v>
+        <v>73.293028872838391</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="8" t="s">
-        <v>64</v>
+      <c r="B35">
+        <v>71.183999999999997</v>
       </c>
       <c r="C35">
         <f>24</f>
@@ -5402,12 +4289,12 @@
       </c>
       <c r="H35" s="6">
         <f>H31/H32</f>
-        <v>8.1298209660433211E-3</v>
+        <v>0.86177948291401407</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="8" t="s">
-        <v>65</v>
+      <c r="B36">
+        <v>73.332999999999998</v>
       </c>
       <c r="C36">
         <f>24</f>
@@ -5418,8 +4305,8 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="8" t="s">
-        <v>66</v>
+      <c r="B37">
+        <v>80.459999999999994</v>
       </c>
       <c r="C37">
         <f>24</f>
@@ -5430,8 +4317,8 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="8" t="s">
-        <v>67</v>
+      <c r="B38">
+        <v>81.277000000000001</v>
       </c>
       <c r="C38">
         <f>24</f>
@@ -5439,8 +4326,8 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="8" t="s">
-        <v>68</v>
+      <c r="B39">
+        <v>81.989000000000004</v>
       </c>
       <c r="C39">
         <f>24</f>
@@ -5448,8 +4335,8 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="8" t="s">
-        <v>69</v>
+      <c r="B40">
+        <v>82.462000000000003</v>
       </c>
       <c r="C40">
         <f>24</f>
@@ -5457,8 +4344,8 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="8" t="s">
-        <v>70</v>
+      <c r="B41">
+        <v>91.53</v>
       </c>
       <c r="C41">
         <f>24</f>
@@ -5466,8 +4353,8 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="8" t="s">
-        <v>71</v>
+      <c r="B42">
+        <v>92.67</v>
       </c>
       <c r="C42">
         <f>24</f>
@@ -5475,8 +4362,8 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="8" t="s">
-        <v>72</v>
+      <c r="B43">
+        <v>95.879000000000005</v>
       </c>
       <c r="C43">
         <f>24</f>
@@ -5484,8 +4371,8 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="8" t="s">
-        <v>73</v>
+      <c r="B44">
+        <v>96.896000000000001</v>
       </c>
       <c r="C44">
         <f>24</f>
@@ -5493,8 +4380,8 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="8" t="s">
-        <v>74</v>
+      <c r="B45">
+        <v>101.33499999999999</v>
       </c>
       <c r="C45">
         <f>17</f>
@@ -5502,8 +4389,8 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="8" t="s">
-        <v>75</v>
+      <c r="B46">
+        <v>105.88</v>
       </c>
       <c r="C46">
         <f>17</f>
@@ -5511,8 +4398,8 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="8" t="s">
-        <v>76</v>
+      <c r="B47">
+        <v>109.801</v>
       </c>
       <c r="C47">
         <f>17</f>
@@ -5520,8 +4407,8 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="8" t="s">
-        <v>77</v>
+      <c r="B48">
+        <v>113.333</v>
       </c>
       <c r="C48">
         <f>17</f>
@@ -5529,8 +4416,8 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="8" t="s">
-        <v>78</v>
+      <c r="B49">
+        <v>114.69799999999999</v>
       </c>
       <c r="C49">
         <f>17</f>
@@ -5538,8 +4425,8 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="8" t="s">
-        <v>79</v>
+      <c r="B50">
+        <v>118.34099999999999</v>
       </c>
       <c r="C50">
         <f>17</f>
@@ -5547,8 +4434,8 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="8" t="s">
-        <v>80</v>
+      <c r="B51">
+        <v>119.789</v>
       </c>
       <c r="C51">
         <f>17</f>
@@ -5556,8 +4443,8 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="8" t="s">
-        <v>81</v>
+      <c r="B52">
+        <v>126.348</v>
       </c>
       <c r="C52">
         <f>17</f>
@@ -5565,8 +4452,8 @@
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="8" t="s">
-        <v>82</v>
+      <c r="B53">
+        <v>128.23599999999999</v>
       </c>
       <c r="C53">
         <f>17</f>
@@ -5574,8 +4461,8 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="8" t="s">
-        <v>83</v>
+      <c r="B54">
+        <v>131.05500000000001</v>
       </c>
       <c r="C54">
         <f>17</f>
@@ -5583,8 +4470,8 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="8" t="s">
-        <v>84</v>
+      <c r="B55">
+        <v>138.40899999999999</v>
       </c>
       <c r="C55">
         <f>17</f>
@@ -5592,8 +4479,8 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="8" t="s">
-        <v>85</v>
+      <c r="B56">
+        <v>141.42099999999999</v>
       </c>
       <c r="C56">
         <f>17</f>
@@ -5601,8 +4488,8 @@
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="8" t="s">
-        <v>86</v>
+      <c r="B57">
+        <v>142.66800000000001</v>
       </c>
       <c r="C57">
         <f>17</f>
@@ -5610,8 +4497,8 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="8" t="s">
-        <v>86</v>
+      <c r="B58">
+        <v>142.66800000000001</v>
       </c>
       <c r="C58">
         <f>17</f>
@@ -5619,8 +4506,8 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="8" t="s">
-        <v>87</v>
+      <c r="B59">
+        <v>146.21100000000001</v>
       </c>
       <c r="C59">
         <f>17</f>
@@ -5628,8 +4515,8 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="8" t="s">
-        <v>88</v>
+      <c r="B60">
+        <v>146.804</v>
       </c>
       <c r="C60">
         <f>17</f>
@@ -5637,8 +4524,8 @@
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="8" t="s">
-        <v>89</v>
+      <c r="B61">
+        <v>149.15299999999999</v>
       </c>
       <c r="C61">
         <f>17</f>
@@ -5646,8 +4533,8 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="8" t="s">
-        <v>90</v>
+      <c r="B62">
+        <v>151.18299999999999</v>
       </c>
       <c r="C62">
         <f>18</f>
@@ -5655,8 +4542,8 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="8" t="s">
-        <v>91</v>
+      <c r="B63">
+        <v>153.352</v>
       </c>
       <c r="C63">
         <f>18</f>
@@ -5664,8 +4551,8 @@
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="8" t="s">
-        <v>92</v>
+      <c r="B64">
+        <v>154.745</v>
       </c>
       <c r="C64">
         <f>18</f>
@@ -5673,8 +4560,8 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="8" t="s">
-        <v>93</v>
+      <c r="B65">
+        <v>155.28200000000001</v>
       </c>
       <c r="C65">
         <f>18</f>
@@ -5682,8 +4569,8 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="8" t="s">
-        <v>93</v>
+      <c r="B66">
+        <v>155.28200000000001</v>
       </c>
       <c r="C66">
         <f>18</f>
@@ -5691,8 +4578,8 @@
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B67" s="8" t="s">
-        <v>94</v>
+      <c r="B67">
+        <v>155.63499999999999</v>
       </c>
       <c r="C67">
         <f>18</f>
@@ -5700,8 +4587,8 @@
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B68" s="8" t="s">
-        <v>95</v>
+      <c r="B68">
+        <v>156.339</v>
       </c>
       <c r="C68">
         <f>18</f>
@@ -5709,8 +4596,8 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B69" s="8" t="s">
-        <v>96</v>
+      <c r="B69">
+        <v>159.172</v>
       </c>
       <c r="C69">
         <f>18</f>
@@ -5718,8 +4605,8 @@
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="8" t="s">
-        <v>97</v>
+      <c r="B70">
+        <v>164.941</v>
       </c>
       <c r="C70">
         <f>18</f>
@@ -5727,8 +4614,8 @@
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="8" t="s">
-        <v>98</v>
+      <c r="B71">
+        <v>169.898</v>
       </c>
       <c r="C71">
         <f>18</f>
@@ -5736,8 +4623,8 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="8" t="s">
-        <v>99</v>
+      <c r="B72">
+        <v>173.01</v>
       </c>
       <c r="C72">
         <f>18</f>
@@ -5745,8 +4632,8 @@
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B73" s="8" t="s">
-        <v>99</v>
+      <c r="B73">
+        <v>173.01</v>
       </c>
       <c r="C73">
         <f>18</f>
@@ -5754,8 +4641,8 @@
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B74" s="8" t="s">
-        <v>99</v>
+      <c r="B74">
+        <v>173.01</v>
       </c>
       <c r="C74">
         <f>18</f>
@@ -5763,8 +4650,8 @@
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B75" s="8" t="s">
-        <v>100</v>
+      <c r="B75">
+        <v>173.61099999999999</v>
       </c>
       <c r="C75">
         <f>18</f>
@@ -5772,8 +4659,8 @@
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B76" s="8" t="s">
-        <v>100</v>
+      <c r="B76">
+        <v>173.61099999999999</v>
       </c>
       <c r="C76">
         <f>18</f>
@@ -5781,8 +4668,8 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B77" s="8" t="s">
-        <v>101</v>
+      <c r="B77">
+        <v>195.739</v>
       </c>
       <c r="C77">
         <f>18</f>
@@ -5790,8 +4677,8 @@
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B78" s="8" t="s">
-        <v>101</v>
+      <c r="B78">
+        <v>195.739</v>
       </c>
       <c r="C78">
         <f>18</f>
@@ -5799,8 +4686,8 @@
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B79" s="8" t="s">
-        <v>102</v>
+      <c r="B79">
+        <v>196.41900000000001</v>
       </c>
       <c r="C79">
         <f>18</f>
@@ -5808,8 +4695,8 @@
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B80" s="8" t="s">
-        <v>103</v>
+      <c r="B80">
+        <v>202.464</v>
       </c>
       <c r="C80">
         <f>31</f>
@@ -5817,8 +4704,8 @@
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="8" t="s">
-        <v>104</v>
+      <c r="B81">
+        <v>203.333</v>
       </c>
       <c r="C81">
         <f>31</f>
@@ -5826,8 +4713,8 @@
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B82" s="8" t="s">
-        <v>105</v>
+      <c r="B82">
+        <v>203.679</v>
       </c>
       <c r="C82">
         <f>31</f>
@@ -5835,8 +4722,8 @@
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B83" s="8" t="s">
-        <v>106</v>
+      <c r="B83">
+        <v>207.61199999999999</v>
       </c>
       <c r="C83">
         <f>31</f>
@@ -5844,8 +4731,8 @@
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B84" s="8" t="s">
-        <v>106</v>
+      <c r="B84">
+        <v>207.61199999999999</v>
       </c>
       <c r="C84">
         <f>31</f>
@@ -5853,8 +4740,8 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B85" s="8" t="s">
-        <v>106</v>
+      <c r="B85">
+        <v>207.61199999999999</v>
       </c>
       <c r="C85">
         <f>31</f>
@@ -5862,8 +4749,8 @@
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B86" s="8" t="s">
-        <v>107</v>
+      <c r="B86">
+        <v>208.333</v>
       </c>
       <c r="C86">
         <f>31</f>
@@ -5871,8 +4758,8 @@
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B87" s="8" t="s">
-        <v>107</v>
+      <c r="B87">
+        <v>208.333</v>
       </c>
       <c r="C87">
         <f>31</f>
@@ -5880,8 +4767,8 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B88" s="8" t="s">
-        <v>107</v>
+      <c r="B88">
+        <v>208.333</v>
       </c>
       <c r="C88">
         <f>31</f>
@@ -5889,8 +4776,8 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B89" s="8" t="s">
-        <v>108</v>
+      <c r="B89">
+        <v>220.971</v>
       </c>
       <c r="C89">
         <f>31</f>
@@ -5898,8 +4785,8 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B90" s="8" t="s">
-        <v>109</v>
+      <c r="B90">
+        <v>221.56100000000001</v>
       </c>
       <c r="C90">
         <f>31</f>
@@ -5907,8 +4794,8 @@
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B91" s="8" t="s">
-        <v>109</v>
+      <c r="B91">
+        <v>221.56100000000001</v>
       </c>
       <c r="C91">
         <f>31</f>
@@ -5916,8 +4803,8 @@
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B92" s="8" t="s">
-        <v>109</v>
+      <c r="B92">
+        <v>221.56100000000001</v>
       </c>
       <c r="C92">
         <f>31</f>
@@ -5925,8 +4812,8 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B93" s="8" t="s">
-        <v>110</v>
+      <c r="B93">
+        <v>222.38900000000001</v>
       </c>
       <c r="C93">
         <f>31</f>
@@ -5934,8 +4821,8 @@
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B94" s="8" t="s">
-        <v>111</v>
+      <c r="B94">
+        <v>223.178</v>
       </c>
       <c r="C94">
         <f>31</f>
@@ -5943,8 +4830,8 @@
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B95" s="8" t="s">
-        <v>112</v>
+      <c r="B95">
+        <v>225.672</v>
       </c>
       <c r="C95">
         <f>31</f>
@@ -5952,8 +4839,8 @@
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B96" s="8" t="s">
-        <v>113</v>
+      <c r="B96">
+        <v>232.92400000000001</v>
       </c>
       <c r="C96">
         <f>31</f>
@@ -5961,8 +4848,8 @@
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B97" s="8" t="s">
-        <v>114</v>
+      <c r="B97">
+        <v>235.84200000000001</v>
       </c>
       <c r="C97">
         <f>31</f>
@@ -5970,8 +4857,8 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B98" s="8" t="s">
-        <v>115</v>
+      <c r="B98">
+        <v>236.96</v>
       </c>
       <c r="C98">
         <f>31</f>
@@ -5979,8 +4866,8 @@
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B99" s="8" t="s">
-        <v>116</v>
+      <c r="B99">
+        <v>237.393</v>
       </c>
       <c r="C99">
         <f>31</f>
@@ -5988,8 +4875,8 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B100" s="8" t="s">
-        <v>117</v>
+      <c r="B100">
+        <v>239.88900000000001</v>
       </c>
       <c r="C100">
         <f>31</f>
@@ -5997,8 +4884,8 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B101" s="8" t="s">
-        <v>118</v>
+      <c r="B101">
+        <v>243.05600000000001</v>
       </c>
       <c r="C101">
         <f>31</f>
@@ -6006,8 +4893,8 @@
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B102" s="8" t="s">
-        <v>118</v>
+      <c r="B102">
+        <v>243.05600000000001</v>
       </c>
       <c r="C102">
         <f>31</f>
@@ -6015,8 +4902,8 @@
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B103" s="8" t="s">
-        <v>119</v>
+      <c r="B103">
+        <v>244.67400000000001</v>
       </c>
       <c r="C103">
         <f>31</f>
@@ -6024,8 +4911,8 @@
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B104" s="8" t="s">
-        <v>120</v>
+      <c r="B104">
+        <v>245.523</v>
       </c>
       <c r="C104">
         <f>31</f>
@@ -6033,8 +4920,8 @@
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B105" s="8" t="s">
-        <v>120</v>
+      <c r="B105">
+        <v>245.523</v>
       </c>
       <c r="C105">
         <f>31</f>
@@ -6042,8 +4929,8 @@
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B106" s="8" t="s">
-        <v>120</v>
+      <c r="B106">
+        <v>245.523</v>
       </c>
       <c r="C106">
         <f>31</f>
@@ -6051,8 +4938,8 @@
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B107" s="8" t="s">
-        <v>121</v>
+      <c r="B107">
+        <v>245.94499999999999</v>
       </c>
       <c r="C107">
         <f>31</f>
@@ -6060,8 +4947,8 @@
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B108" s="8" t="s">
-        <v>122</v>
+      <c r="B108">
+        <v>245.988</v>
       </c>
       <c r="C108">
         <f>31</f>
@@ -6069,8 +4956,8 @@
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B109" s="8" t="s">
-        <v>123</v>
+      <c r="B109">
+        <v>249.51900000000001</v>
       </c>
       <c r="C109">
         <f>31</f>
@@ -6078,8 +4965,8 @@
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B110" s="8" t="s">
-        <v>123</v>
+      <c r="B110">
+        <v>249.51900000000001</v>
       </c>
       <c r="C110">
         <f>31</f>
@@ -6087,8 +4974,8 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B111" s="8" t="s">
-        <v>124</v>
+      <c r="B111">
+        <v>250.386</v>
       </c>
       <c r="C111">
         <f>33</f>
@@ -6096,8 +4983,8 @@
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B112" s="8" t="s">
-        <v>124</v>
+      <c r="B112">
+        <v>250.386</v>
       </c>
       <c r="C112">
         <f>33</f>
@@ -6105,8 +4992,8 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B113" s="8" t="s">
-        <v>124</v>
+      <c r="B113">
+        <v>250.386</v>
       </c>
       <c r="C113">
         <f>33</f>
@@ -6114,8 +5001,8 @@
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B114" s="8" t="s">
-        <v>125</v>
+      <c r="B114">
+        <v>252.78200000000001</v>
       </c>
       <c r="C114">
         <f>33</f>
@@ -6123,8 +5010,8 @@
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B115" s="8" t="s">
-        <v>126</v>
+      <c r="B115">
+        <v>253.13499999999999</v>
       </c>
       <c r="C115">
         <f>33</f>
@@ -6132,8 +5019,8 @@
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B116" s="8" t="s">
-        <v>127</v>
+      <c r="B116">
+        <v>260.41699999999997</v>
       </c>
       <c r="C116">
         <f>33</f>
@@ -6141,8 +5028,8 @@
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B117" s="8" t="s">
-        <v>128</v>
+      <c r="B117">
+        <v>263.52199999999999</v>
       </c>
       <c r="C117">
         <f>33</f>
@@ -6150,8 +5037,8 @@
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B118" s="8" t="s">
-        <v>128</v>
+      <c r="B118">
+        <v>263.52199999999999</v>
       </c>
       <c r="C118">
         <f>33</f>
@@ -6159,8 +5046,8 @@
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B119" s="8" t="s">
-        <v>129</v>
+      <c r="B119">
+        <v>264.43700000000001</v>
       </c>
       <c r="C119">
         <f>33</f>
@@ -6168,8 +5055,8 @@
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B120" s="8" t="s">
-        <v>130</v>
+      <c r="B120">
+        <v>264.911</v>
       </c>
       <c r="C120">
         <f>33</f>
@@ -6177,8 +5064,8 @@
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B121" s="8" t="s">
-        <v>131</v>
+      <c r="B121">
+        <v>271.18599999999998</v>
       </c>
       <c r="C121">
         <f>33</f>
@@ -6186,8 +5073,8 @@
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B122" s="8" t="s">
-        <v>132</v>
+      <c r="B122">
+        <v>271.18900000000002</v>
       </c>
       <c r="C122">
         <f>33</f>
@@ -6195,8 +5082,8 @@
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B123" s="8" t="s">
-        <v>132</v>
+      <c r="B123">
+        <v>271.18900000000002</v>
       </c>
       <c r="C123">
         <f>33</f>
@@ -6204,8 +5091,8 @@
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B124" s="8" t="s">
-        <v>132</v>
+      <c r="B124">
+        <v>271.18900000000002</v>
       </c>
       <c r="C124">
         <f>33</f>
@@ -6213,8 +5100,8 @@
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B125" s="8" t="s">
-        <v>133</v>
+      <c r="B125">
+        <v>276.81700000000001</v>
       </c>
       <c r="C125">
         <f>33</f>
@@ -6222,8 +5109,8 @@
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B126" s="8" t="s">
-        <v>133</v>
+      <c r="B126">
+        <v>276.81700000000001</v>
       </c>
       <c r="C126">
         <f>33</f>
@@ -6231,8 +5118,8 @@
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B127" s="8" t="s">
-        <v>134</v>
+      <c r="B127">
+        <v>278.971</v>
       </c>
       <c r="C127">
         <f>33</f>
@@ -6240,8 +5127,8 @@
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B128" s="8" t="s">
-        <v>135</v>
+      <c r="B128">
+        <v>279.94</v>
       </c>
       <c r="C128">
         <f>33</f>
@@ -6249,8 +5136,8 @@
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B129" s="8" t="s">
-        <v>136</v>
+      <c r="B129">
+        <v>285.33600000000001</v>
       </c>
       <c r="C129">
         <f>33</f>
@@ -6258,8 +5145,8 @@
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B130" s="8" t="s">
-        <v>137</v>
+      <c r="B130">
+        <v>286.327</v>
       </c>
       <c r="C130">
         <f>33</f>
@@ -6267,8 +5154,8 @@
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B131" s="8" t="s">
-        <v>137</v>
+      <c r="B131">
+        <v>286.327</v>
       </c>
       <c r="C131">
         <f>33</f>
@@ -6276,8 +5163,8 @@
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B132" s="8" t="s">
-        <v>138</v>
+      <c r="B132">
+        <v>287.35599999999999</v>
       </c>
       <c r="C132">
         <f>33</f>
@@ -6285,8 +5172,8 @@
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B133" s="8" t="s">
-        <v>139</v>
+      <c r="B133">
+        <v>293.608</v>
       </c>
       <c r="C133">
         <f>33</f>
@@ -6294,8 +5181,8 @@
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B134" s="8" t="s">
-        <v>140</v>
+      <c r="B134">
+        <v>294.62799999999999</v>
       </c>
       <c r="C134">
         <f>33</f>
@@ -6303,8 +5190,8 @@
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B135" s="8" t="s">
-        <v>140</v>
+      <c r="B135">
+        <v>294.62799999999999</v>
       </c>
       <c r="C135">
         <f>33</f>
@@ -6312,8 +5199,8 @@
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B136" s="8" t="s">
-        <v>141</v>
+      <c r="B136">
+        <v>295.64</v>
       </c>
       <c r="C136">
         <f>33</f>
@@ -6321,8 +5208,8 @@
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B137" s="8" t="s">
-        <v>141</v>
+      <c r="B137">
+        <v>295.64</v>
       </c>
       <c r="C137">
         <f>33</f>
@@ -6330,8 +5217,8 @@
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B138" s="8" t="s">
-        <v>141</v>
+      <c r="B138">
+        <v>295.64</v>
       </c>
       <c r="C138">
         <f>33</f>
@@ -6339,8 +5226,8 @@
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B139" s="8" t="s">
-        <v>142</v>
+      <c r="B139">
+        <v>296.53899999999999</v>
       </c>
       <c r="C139">
         <f>33</f>
@@ -6348,8 +5235,8 @@
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B140" s="8" t="s">
-        <v>143</v>
+      <c r="B140">
+        <v>297.65800000000002</v>
       </c>
       <c r="C140">
         <f>33</f>
@@ -6357,8 +5244,8 @@
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B141" s="8" t="s">
-        <v>143</v>
+      <c r="B141">
+        <v>297.65800000000002</v>
       </c>
       <c r="C141">
         <f>33</f>
@@ -6366,8 +5253,8 @@
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B142" s="8" t="s">
-        <v>143</v>
+      <c r="B142">
+        <v>297.65800000000002</v>
       </c>
       <c r="C142">
         <f>33</f>
@@ -6375,8 +5262,8 @@
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B143" s="8" t="s">
-        <v>144</v>
+      <c r="B143">
+        <v>298.69200000000001</v>
       </c>
       <c r="C143">
         <f>33</f>
@@ -6384,8 +5271,8 @@
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B144" s="8" t="s">
-        <v>145</v>
+      <c r="B144">
+        <v>309.279</v>
       </c>
       <c r="C144">
         <f>43</f>
@@ -6393,8 +5280,8 @@
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B145" s="8" t="s">
-        <v>146</v>
+      <c r="B145">
+        <v>309.49</v>
       </c>
       <c r="C145">
         <f>43</f>
@@ -6402,8 +5289,8 @@
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B146" s="8" t="s">
-        <v>146</v>
+      <c r="B146">
+        <v>309.49</v>
       </c>
       <c r="C146">
         <f>43</f>
@@ -6411,8 +5298,8 @@
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B147" s="8" t="s">
-        <v>146</v>
+      <c r="B147">
+        <v>309.49</v>
       </c>
       <c r="C147">
         <f>43</f>
@@ -6420,8 +5307,8 @@
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B148" s="8" t="s">
-        <v>147</v>
+      <c r="B148">
+        <v>310.565</v>
       </c>
       <c r="C148">
         <f>43</f>
@@ -6429,8 +5316,8 @@
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B149" s="8" t="s">
-        <v>147</v>
+      <c r="B149">
+        <v>310.565</v>
       </c>
       <c r="C149">
         <f>43</f>
@@ -6438,8 +5325,8 @@
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B150" s="8" t="s">
-        <v>148</v>
+      <c r="B150">
+        <v>312.5</v>
       </c>
       <c r="C150">
         <f>43</f>
@@ -6447,8 +5334,8 @@
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B151" s="8" t="s">
-        <v>149</v>
+      <c r="B151">
+        <v>313.73200000000003</v>
       </c>
       <c r="C151">
         <f>43</f>
@@ -6456,8 +5343,8 @@
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B152" s="8" t="s">
-        <v>150</v>
+      <c r="B152">
+        <v>314.423</v>
       </c>
       <c r="C152">
         <f>43</f>
@@ -6465,8 +5352,8 @@
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B153" s="8" t="s">
-        <v>150</v>
+      <c r="B153">
+        <v>314.423</v>
       </c>
       <c r="C153">
         <f>43</f>
@@ -6474,8 +5361,8 @@
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B154" s="8" t="s">
-        <v>151</v>
+      <c r="B154">
+        <v>316.54599999999999</v>
       </c>
       <c r="C154">
         <f>43</f>
@@ -6483,8 +5370,8 @@
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B155" s="8" t="s">
-        <v>152</v>
+      <c r="B155">
+        <v>317.08300000000003</v>
       </c>
       <c r="C155">
         <f>43</f>
@@ -6492,8 +5379,8 @@
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B156" s="8" t="s">
-        <v>153</v>
+      <c r="B156">
+        <v>317.91500000000002</v>
       </c>
       <c r="C156">
         <f>43</f>
@@ -6501,8 +5388,8 @@
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B157" s="8" t="s">
-        <v>154</v>
+      <c r="B157">
+        <v>319.01499999999999</v>
       </c>
       <c r="C157">
         <f>43</f>
@@ -6510,8 +5397,8 @@
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B158" s="8" t="s">
-        <v>154</v>
+      <c r="B158">
+        <v>319.01499999999999</v>
       </c>
       <c r="C158">
         <f>43</f>
@@ -6519,8 +5406,8 @@
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B159" s="8" t="s">
-        <v>154</v>
+      <c r="B159">
+        <v>319.01499999999999</v>
       </c>
       <c r="C159">
         <f>43</f>
@@ -6528,8 +5415,8 @@
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B160" s="8" t="s">
-        <v>154</v>
+      <c r="B160">
+        <v>319.01499999999999</v>
       </c>
       <c r="C160">
         <f>43</f>
@@ -6537,8 +5424,8 @@
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B161" s="8" t="s">
-        <v>154</v>
+      <c r="B161">
+        <v>319.01499999999999</v>
       </c>
       <c r="C161">
         <f>43</f>
@@ -6546,8 +5433,8 @@
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B162" s="8" t="s">
-        <v>155</v>
+      <c r="B162">
+        <v>320.12299999999999</v>
       </c>
       <c r="C162">
         <f>43</f>
@@ -6555,8 +5442,8 @@
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B163" s="8" t="s">
-        <v>155</v>
+      <c r="B163">
+        <v>320.12299999999999</v>
       </c>
       <c r="C163">
         <f>43</f>
@@ -6564,8 +5451,8 @@
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B164" s="8" t="s">
-        <v>155</v>
+      <c r="B164">
+        <v>320.12299999999999</v>
       </c>
       <c r="C164">
         <f>43</f>
@@ -6573,8 +5460,8 @@
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B165" s="8" t="s">
-        <v>156</v>
+      <c r="B165">
+        <v>326.435</v>
       </c>
       <c r="C165">
         <f>43</f>
@@ -6582,8 +5469,8 @@
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B166" s="8" t="s">
-        <v>156</v>
+      <c r="B166">
+        <v>326.435</v>
       </c>
       <c r="C166">
         <f>43</f>
@@ -6591,8 +5478,8 @@
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B167" s="8" t="s">
-        <v>156</v>
+      <c r="B167">
+        <v>326.435</v>
       </c>
       <c r="C167">
         <f>43</f>
@@ -6600,8 +5487,8 @@
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B168" s="8" t="s">
-        <v>156</v>
+      <c r="B168">
+        <v>326.435</v>
       </c>
       <c r="C168">
         <f>43</f>
@@ -6609,8 +5496,8 @@
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B169" s="8" t="s">
-        <v>156</v>
+      <c r="B169">
+        <v>326.435</v>
       </c>
       <c r="C169">
         <f>43</f>
@@ -6618,8 +5505,8 @@
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B170" s="8" t="s">
-        <v>157</v>
+      <c r="B170">
+        <v>327.56900000000002</v>
       </c>
       <c r="C170">
         <f>43</f>
@@ -6627,8 +5514,8 @@
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B171" s="8" t="s">
-        <v>157</v>
+      <c r="B171">
+        <v>327.56900000000002</v>
       </c>
       <c r="C171">
         <f>43</f>
@@ -6636,8 +5523,8 @@
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B172" s="8" t="s">
-        <v>158</v>
+      <c r="B172">
+        <v>329.404</v>
       </c>
       <c r="C172">
         <f>43</f>
@@ -6645,8 +5532,8 @@
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B173" s="8" t="s">
-        <v>158</v>
+      <c r="B173">
+        <v>329.404</v>
       </c>
       <c r="C173">
         <f>43</f>
@@ -6654,8 +5541,8 @@
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B174" s="8" t="s">
-        <v>159</v>
+      <c r="B174">
+        <v>340.26100000000002</v>
       </c>
       <c r="C174">
         <f>43</f>
@@ -6663,8 +5550,8 @@
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B175" s="8" t="s">
-        <v>160</v>
+      <c r="B175">
+        <v>340.791</v>
       </c>
       <c r="C175">
         <f>43</f>
@@ -6672,8 +5559,8 @@
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B176" s="8" t="s">
-        <v>160</v>
+      <c r="B176">
+        <v>340.791</v>
       </c>
       <c r="C176">
         <f>43</f>
@@ -6681,8 +5568,8 @@
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B177" s="8" t="s">
-        <v>161</v>
+      <c r="B177">
+        <v>341.16800000000001</v>
       </c>
       <c r="C177">
         <f>43</f>
@@ -6690,8 +5577,8 @@
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B178" s="8" t="s">
-        <v>162</v>
+      <c r="B178">
+        <v>342.54300000000001</v>
       </c>
       <c r="C178">
         <f>43</f>
@@ -6699,8 +5586,8 @@
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B179" s="8" t="s">
-        <v>163</v>
+      <c r="B179">
+        <v>346.02100000000002</v>
       </c>
       <c r="C179">
         <f>43</f>
@@ -6708,8 +5595,8 @@
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B180" s="8" t="s">
-        <v>163</v>
+      <c r="B180">
+        <v>346.02100000000002</v>
       </c>
       <c r="C180">
         <f>43</f>
@@ -6717,8 +5604,8 @@
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B181" s="8" t="s">
-        <v>163</v>
+      <c r="B181">
+        <v>346.02100000000002</v>
       </c>
       <c r="C181">
         <f>43</f>
@@ -6726,8 +5613,8 @@
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B182" s="8" t="s">
-        <v>164</v>
+      <c r="B182">
+        <v>347.22199999999998</v>
       </c>
       <c r="C182">
         <f>43</f>
@@ -6735,8 +5622,8 @@
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B183" s="8" t="s">
-        <v>164</v>
+      <c r="B183">
+        <v>347.22199999999998</v>
       </c>
       <c r="C183">
         <f>43</f>
@@ -6744,8 +5631,8 @@
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B184" s="8" t="s">
-        <v>164</v>
+      <c r="B184">
+        <v>347.22199999999998</v>
       </c>
       <c r="C184">
         <f>43</f>
@@ -6753,8 +5640,8 @@
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B185" s="8" t="s">
-        <v>164</v>
+      <c r="B185">
+        <v>347.22199999999998</v>
       </c>
       <c r="C185">
         <f>43</f>
@@ -6762,8 +5649,8 @@
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B186" s="8" t="s">
-        <v>165</v>
+      <c r="B186">
+        <v>347.74700000000001</v>
       </c>
       <c r="C186">
         <f>43</f>
@@ -6771,8 +5658,8 @@
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B187" s="8" t="s">
-        <v>166</v>
+      <c r="B187">
+        <v>354.09899999999999</v>
       </c>
       <c r="C187">
         <f>28</f>
@@ -6780,8 +5667,8 @@
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B188" s="8" t="s">
-        <v>167</v>
+      <c r="B188">
+        <v>356.25</v>
       </c>
       <c r="C188">
         <f>28</f>
@@ -6789,8 +5676,8 @@
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B189" s="8" t="s">
-        <v>167</v>
+      <c r="B189">
+        <v>356.25</v>
       </c>
       <c r="C189">
         <f>28</f>
@@ -6798,8 +5685,8 @@
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B190" s="8" t="s">
-        <v>168</v>
+      <c r="B190">
+        <v>357.48700000000002</v>
       </c>
       <c r="C190">
         <f>28</f>
@@ -6807,8 +5694,8 @@
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B191" s="8" t="s">
-        <v>168</v>
+      <c r="B191">
+        <v>357.48700000000002</v>
       </c>
       <c r="C191">
         <f>28</f>
@@ -6816,8 +5703,8 @@
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B192" s="8" t="s">
-        <v>169</v>
+      <c r="B192">
+        <v>359.68</v>
       </c>
       <c r="C192">
         <f>28</f>
@@ -6825,8 +5712,8 @@
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B193" s="8" t="s">
-        <v>170</v>
+      <c r="B193">
+        <v>361.25599999999997</v>
       </c>
       <c r="C193">
         <f>28</f>
@@ -6834,8 +5721,8 @@
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B194" s="8" t="s">
-        <v>171</v>
+      <c r="B194">
+        <v>362.51100000000002</v>
       </c>
       <c r="C194">
         <f>28</f>
@@ -6843,8 +5730,8 @@
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B195" s="8" t="s">
-        <v>171</v>
+      <c r="B195">
+        <v>362.51100000000002</v>
       </c>
       <c r="C195">
         <f>28</f>
@@ -6852,8 +5739,8 @@
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B196" s="8" t="s">
-        <v>172</v>
+      <c r="B196">
+        <v>367.82499999999999</v>
       </c>
       <c r="C196">
         <f>28</f>
@@ -6861,8 +5748,8 @@
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B197" s="8" t="s">
-        <v>173</v>
+      <c r="B197">
+        <v>368.28500000000003</v>
       </c>
       <c r="C197">
         <f>28</f>
@@ -6870,8 +5757,8 @@
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B198" s="8" t="s">
-        <v>174</v>
+      <c r="B198">
+        <v>372.67599999999999</v>
       </c>
       <c r="C198">
         <f>28</f>
@@ -6879,8 +5766,8 @@
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B199" s="8" t="s">
-        <v>174</v>
+      <c r="B199">
+        <v>372.67599999999999</v>
       </c>
       <c r="C199">
         <f>28</f>
@@ -6888,8 +5775,8 @@
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B200" s="8" t="s">
-        <v>175</v>
+      <c r="B200">
+        <v>374.279</v>
       </c>
       <c r="C200">
         <f>28</f>
@@ -6897,8 +5784,8 @@
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B201" s="8" t="s">
-        <v>176</v>
+      <c r="B201">
+        <v>375.57799999999997</v>
       </c>
       <c r="C201">
         <f>28</f>
@@ -6906,8 +5793,8 @@
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B202" s="8" t="s">
-        <v>176</v>
+      <c r="B202">
+        <v>375.57799999999997</v>
       </c>
       <c r="C202">
         <f>28</f>
@@ -6915,8 +5802,8 @@
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B203" s="8" t="s">
-        <v>176</v>
+      <c r="B203">
+        <v>375.57799999999997</v>
       </c>
       <c r="C203">
         <f>28</f>
@@ -6924,8 +5811,8 @@
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B204" s="8" t="s">
-        <v>177</v>
+      <c r="B204">
+        <v>380.62299999999999</v>
       </c>
       <c r="C204">
         <f>28</f>
@@ -6933,8 +5820,8 @@
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B205" s="8" t="s">
-        <v>178</v>
+      <c r="B205">
+        <v>381.94400000000002</v>
       </c>
       <c r="C205">
         <f>28</f>
@@ -6942,8 +5829,8 @@
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B206" s="8" t="s">
-        <v>179</v>
+      <c r="B206">
+        <v>386.214</v>
       </c>
       <c r="C206">
         <f>28</f>
@@ -6951,8 +5838,8 @@
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B207" s="8" t="s">
-        <v>180</v>
+      <c r="B207">
+        <v>386.863</v>
       </c>
       <c r="C207">
         <f>28</f>
@@ -6960,8 +5847,8 @@
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B208" s="8" t="s">
-        <v>180</v>
+      <c r="B208">
+        <v>386.863</v>
       </c>
       <c r="C208">
         <f>28</f>
@@ -6969,8 +5856,8 @@
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B209" s="8" t="s">
-        <v>181</v>
+      <c r="B209">
+        <v>392.83699999999999</v>
       </c>
       <c r="C209">
         <f>28</f>
@@ -6978,8 +5865,8 @@
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B210" s="8" t="s">
-        <v>182</v>
+      <c r="B210">
+        <v>394.524</v>
       </c>
       <c r="C210">
         <f>28</f>
@@ -6987,8 +5874,8 @@
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B211" s="8" t="s">
-        <v>183</v>
+      <c r="B211">
+        <v>395.00799999999998</v>
       </c>
       <c r="C211">
         <f>28</f>
@@ -6996,8 +5883,8 @@
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B212" s="8" t="s">
-        <v>184</v>
+      <c r="B212">
+        <v>395.89400000000001</v>
       </c>
       <c r="C212">
         <f>28</f>
@@ -7005,8 +5892,8 @@
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B213" s="8" t="s">
-        <v>185</v>
+      <c r="B213">
+        <v>397.01</v>
       </c>
       <c r="C213">
         <f>28</f>
@@ -7014,8 +5901,8 @@
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B214" s="8" t="s">
-        <v>186</v>
+      <c r="B214">
+        <v>400.983</v>
       </c>
       <c r="C214">
         <f>28</f>
@@ -7023,8 +5910,8 @@
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B215" s="8" t="s">
-        <v>187</v>
+      <c r="B215">
+        <v>406.78399999999999</v>
       </c>
       <c r="C215">
         <f>23</f>
@@ -7032,8 +5919,8 @@
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B216" s="8" t="s">
-        <v>188</v>
+      <c r="B216">
+        <v>415.22500000000002</v>
       </c>
       <c r="C216">
         <f>23</f>
@@ -7041,8 +5928,8 @@
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B217" s="8" t="s">
-        <v>188</v>
+      <c r="B217">
+        <v>415.22500000000002</v>
       </c>
       <c r="C217">
         <f>23</f>
@@ -7050,8 +5937,8 @@
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B218" s="8" t="s">
-        <v>189</v>
+      <c r="B218">
+        <v>416.66399999999999</v>
       </c>
       <c r="C218">
         <f>23</f>
@@ -7059,8 +5946,8 @@
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B219" s="8" t="s">
-        <v>189</v>
+      <c r="B219">
+        <v>416.66399999999999</v>
       </c>
       <c r="C219">
         <f>23</f>
@@ -7068,8 +5955,8 @@
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B220" s="8" t="s">
-        <v>190</v>
+      <c r="B220">
+        <v>416.66699999999997</v>
       </c>
       <c r="C220">
         <f>23</f>
@@ -7077,8 +5964,8 @@
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B221" s="8" t="s">
-        <v>190</v>
+      <c r="B221">
+        <v>416.66699999999997</v>
       </c>
       <c r="C221">
         <f>23</f>
@@ -7086,8 +5973,8 @@
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B222" s="8" t="s">
-        <v>190</v>
+      <c r="B222">
+        <v>416.66699999999997</v>
       </c>
       <c r="C222">
         <f>23</f>
@@ -7095,8 +5982,8 @@
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B223" s="8" t="s">
-        <v>191</v>
+      <c r="B223">
+        <v>418.09800000000001</v>
       </c>
       <c r="C223">
         <f>23</f>
@@ -7104,8 +5991,8 @@
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B224" s="8" t="s">
-        <v>191</v>
+      <c r="B224">
+        <v>418.09800000000001</v>
       </c>
       <c r="C224">
         <f>23</f>
@@ -7113,8 +6000,8 @@
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B225" s="8" t="s">
-        <v>192</v>
+      <c r="B225">
+        <v>420.952</v>
       </c>
       <c r="C225">
         <f>23</f>
@@ -7122,8 +6009,8 @@
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B226" s="8" t="s">
-        <v>192</v>
+      <c r="B226">
+        <v>420.952</v>
       </c>
       <c r="C226">
         <f>23</f>
@@ -7131,8 +6018,8 @@
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B227" s="8" t="s">
-        <v>193</v>
+      <c r="B227">
+        <v>423.839</v>
       </c>
       <c r="C227">
         <f>23</f>
@@ -7140,8 +6027,8 @@
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B228" s="8" t="s">
-        <v>194</v>
+      <c r="B228">
+        <v>428.00400000000002</v>
       </c>
       <c r="C228">
         <f>23</f>
@@ -7149,8 +6036,8 @@
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B229" s="8" t="s">
-        <v>194</v>
+      <c r="B229">
+        <v>428.00400000000002</v>
       </c>
       <c r="C229">
         <f>23</f>
@@ -7158,8 +6045,8 @@
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B230" s="8" t="s">
-        <v>195</v>
+      <c r="B230">
+        <v>429.49</v>
       </c>
       <c r="C230">
         <f>23</f>
@@ -7167,8 +6054,8 @@
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B231" s="8" t="s">
-        <v>196</v>
+      <c r="B231">
+        <v>437.685</v>
       </c>
       <c r="C231">
         <f>23</f>
@@ -7176,8 +6063,8 @@
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B232" s="8" t="s">
-        <v>197</v>
+      <c r="B232">
+        <v>441.94200000000001</v>
       </c>
       <c r="C232">
         <f>23</f>
@@ -7185,8 +6072,8 @@
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B233" s="8" t="s">
-        <v>197</v>
+      <c r="B233">
+        <v>441.94200000000001</v>
       </c>
       <c r="C233">
         <f>23</f>
@@ -7194,8 +6081,8 @@
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B234" s="8" t="s">
-        <v>198</v>
+      <c r="B234">
+        <v>443.12299999999999</v>
       </c>
       <c r="C234">
         <f>23</f>
@@ -7203,8 +6090,8 @@
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B235" s="8" t="s">
-        <v>199</v>
+      <c r="B235">
+        <v>447.09500000000003</v>
       </c>
       <c r="C235">
         <f>23</f>
@@ -7212,8 +6099,8 @@
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B236" s="8" t="s">
-        <v>200</v>
+      <c r="B236">
+        <v>448.03800000000001</v>
       </c>
       <c r="C236">
         <f>23</f>
@@ -7221,8 +6108,8 @@
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B237" s="8" t="s">
-        <v>201</v>
+      <c r="B237">
+        <v>449.827</v>
       </c>
       <c r="C237">
         <f>23</f>
@@ -7230,8 +6117,8 @@
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B238" s="8" t="s">
-        <v>202</v>
+      <c r="B238">
+        <v>451.15600000000001</v>
       </c>
       <c r="C238">
         <f>27</f>
@@ -7239,8 +6126,8 @@
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B239" s="8" t="s">
-        <v>202</v>
+      <c r="B239">
+        <v>451.15600000000001</v>
       </c>
       <c r="C239">
         <f>27</f>
@@ -7248,8 +6135,8 @@
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B240" s="8" t="s">
-        <v>203</v>
+      <c r="B240">
+        <v>451.38900000000001</v>
       </c>
       <c r="C240">
         <f>27</f>
@@ -7257,8 +6144,8 @@
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B241" s="8" t="s">
-        <v>204</v>
+      <c r="B241">
+        <v>455.11900000000003</v>
       </c>
       <c r="C241">
         <f>27</f>
@@ -7266,8 +6153,8 @@
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B242" s="8" t="s">
-        <v>205</v>
+      <c r="B242">
+        <v>456.58600000000001</v>
       </c>
       <c r="C242">
         <f>27</f>
@@ -7275,8 +6162,8 @@
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B243" s="8" t="s">
-        <v>206</v>
+      <c r="B243">
+        <v>462.80799999999999</v>
       </c>
       <c r="C243">
         <f>27</f>
@@ -7284,8 +6171,8 @@
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B244" s="8" t="s">
-        <v>207</v>
+      <c r="B244">
+        <v>465.48200000000003</v>
       </c>
       <c r="C244">
         <f>27</f>
@@ -7293,8 +6180,8 @@
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B245" s="8" t="s">
-        <v>208</v>
+      <c r="B245">
+        <v>465.52300000000002</v>
       </c>
       <c r="C245">
         <f>27</f>
@@ -7302,8 +6189,8 @@
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B246" s="8" t="s">
-        <v>209</v>
+      <c r="B246">
+        <v>465.84699999999998</v>
       </c>
       <c r="C246">
         <f>27</f>
@@ -7311,8 +6198,8 @@
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B247" s="8" t="s">
-        <v>210</v>
+      <c r="B247">
+        <v>468.75</v>
       </c>
       <c r="C247">
         <f>27</f>
@@ -7320,8 +6207,8 @@
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B248" s="8" t="s">
-        <v>211</v>
+      <c r="B248">
+        <v>470.63900000000001</v>
       </c>
       <c r="C248">
         <f>27</f>
@@ -7329,8 +6216,8 @@
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B249" s="8" t="s">
-        <v>211</v>
+      <c r="B249">
+        <v>470.63900000000001</v>
       </c>
       <c r="C249">
         <f>27</f>
@@ -7338,8 +6225,8 @@
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B250" s="8" t="s">
-        <v>212</v>
+      <c r="B250">
+        <v>480.70699999999999</v>
       </c>
       <c r="C250">
         <f>27</f>
@@ -7347,8 +6234,8 @@
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B251" s="8" t="s">
-        <v>212</v>
+      <c r="B251">
+        <v>480.70699999999999</v>
       </c>
       <c r="C251">
         <f>27</f>
@@ -7356,8 +6243,8 @@
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B252" s="8" t="s">
-        <v>213</v>
+      <c r="B252">
+        <v>482.37700000000001</v>
       </c>
       <c r="C252">
         <f>27</f>
@@ -7365,8 +6252,8 @@
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B253" s="8" t="s">
-        <v>214</v>
+      <c r="B253">
+        <v>486.11099999999999</v>
       </c>
       <c r="C253">
         <f>27</f>
@@ -7374,8 +6261,8 @@
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B254" s="8" t="s">
-        <v>215</v>
+      <c r="B254">
+        <v>487.35</v>
       </c>
       <c r="C254">
         <f>27</f>
@@ -7383,8 +6270,8 @@
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B255" s="8" t="s">
-        <v>216</v>
+      <c r="B255">
+        <v>489.34699999999998</v>
       </c>
       <c r="C255">
         <f>27</f>
@@ -7392,8 +6279,8 @@
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B256" s="8" t="s">
-        <v>216</v>
+      <c r="B256">
+        <v>489.34699999999998</v>
       </c>
       <c r="C256">
         <f>27</f>
@@ -7401,8 +6288,8 @@
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B257" s="8" t="s">
-        <v>216</v>
+      <c r="B257">
+        <v>489.34699999999998</v>
       </c>
       <c r="C257">
         <f>27</f>
@@ -7410,8 +6297,8 @@
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B258" s="8" t="s">
-        <v>217</v>
+      <c r="B258">
+        <v>491.35300000000001</v>
       </c>
       <c r="C258">
         <f>27</f>
@@ -7419,8 +6306,8 @@
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B259" s="8" t="s">
-        <v>218</v>
+      <c r="B259">
+        <v>491.78800000000001</v>
       </c>
       <c r="C259">
         <f>27</f>
@@ -7428,8 +6315,8 @@
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B260" s="8" t="s">
-        <v>219</v>
+      <c r="B260">
+        <v>495.42599999999999</v>
       </c>
       <c r="C260">
         <f>27</f>
@@ -7437,8 +6324,8 @@
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B261" s="8" t="s">
-        <v>220</v>
+      <c r="B261">
+        <v>497.14699999999999</v>
       </c>
       <c r="C261">
         <f>27</f>
@@ -7446,8 +6333,8 @@
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B262" s="8" t="s">
-        <v>221</v>
+      <c r="B262">
+        <v>499.03800000000001</v>
       </c>
       <c r="C262">
         <f>27</f>
@@ -7455,8 +6342,8 @@
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B263" s="8" t="s">
-        <v>221</v>
+      <c r="B263">
+        <v>499.03800000000001</v>
       </c>
       <c r="C263">
         <f>27</f>
@@ -7464,8 +6351,8 @@
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B264" s="8" t="s">
-        <v>222</v>
+      <c r="B264">
+        <v>500.77100000000002</v>
       </c>
       <c r="C264">
         <f>27</f>
@@ -7473,8 +6360,8 @@
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B265" s="8" t="s">
-        <v>223</v>
+      <c r="B265">
+        <v>503.12400000000002</v>
       </c>
       <c r="C265">
         <f>21</f>
@@ -7482,8 +6369,8 @@
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B266" s="8" t="s">
-        <v>224</v>
+      <c r="B266">
+        <v>503.81400000000002</v>
       </c>
       <c r="C266">
         <f>21</f>
@@ -7491,8 +6378,8 @@
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B267" s="8" t="s">
-        <v>225</v>
+      <c r="B267">
+        <v>512.96100000000001</v>
       </c>
       <c r="C267">
         <f>21</f>
@@ -7500,8 +6387,8 @@
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B268" s="8" t="s">
-        <v>225</v>
+      <c r="B268">
+        <v>512.96100000000001</v>
       </c>
       <c r="C268">
         <f>21</f>
@@ -7509,8 +6396,8 @@
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B269" s="8" t="s">
-        <v>226</v>
+      <c r="B269">
+        <v>515.59900000000005</v>
       </c>
       <c r="C269">
         <f>21</f>
@@ -7518,8 +6405,8 @@
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B270" s="8" t="s">
-        <v>227</v>
+      <c r="B270">
+        <v>516.18299999999999</v>
       </c>
       <c r="C270">
         <f>21</f>
@@ -7527,8 +6414,8 @@
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B271" s="8" t="s">
-        <v>227</v>
+      <c r="B271">
+        <v>516.18299999999999</v>
       </c>
       <c r="C271">
         <f>21</f>
@@ -7536,8 +6423,8 @@
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B272" s="8" t="s">
-        <v>228</v>
+      <c r="B272">
+        <v>519.03099999999995</v>
       </c>
       <c r="C272">
         <f>21</f>
@@ -7545,8 +6432,8 @@
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B273" s="8" t="s">
-        <v>228</v>
+      <c r="B273">
+        <v>519.03099999999995</v>
       </c>
       <c r="C273">
         <f>21</f>
@@ -7554,8 +6441,8 @@
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B274" s="8" t="s">
-        <v>229</v>
+      <c r="B274">
+        <v>520.83299999999997</v>
       </c>
       <c r="C274">
         <f>21</f>
@@ -7563,8 +6450,8 @@
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B275" s="8" t="s">
-        <v>229</v>
+      <c r="B275">
+        <v>520.83299999999997</v>
       </c>
       <c r="C275">
         <f>21</f>
@@ -7572,8 +6459,8 @@
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B276" s="8" t="s">
-        <v>229</v>
+      <c r="B276">
+        <v>520.83299999999997</v>
       </c>
       <c r="C276">
         <f>21</f>
@@ -7581,8 +6468,8 @@
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B277" s="8" t="s">
-        <v>229</v>
+      <c r="B277">
+        <v>520.83299999999997</v>
       </c>
       <c r="C277">
         <f>21</f>
@@ -7590,8 +6477,8 @@
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B278" s="8" t="s">
-        <v>230</v>
+      <c r="B278">
+        <v>523.43100000000004</v>
       </c>
       <c r="C278">
         <f>21</f>
@@ -7599,8 +6486,8 @@
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B279" s="8" t="s">
-        <v>231</v>
+      <c r="B279">
+        <v>524.21900000000005</v>
       </c>
       <c r="C279">
         <f>21</f>
@@ -7608,8 +6495,8 @@
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B280" s="8" t="s">
-        <v>232</v>
+      <c r="B280">
+        <v>529.30999999999995</v>
       </c>
       <c r="C280">
         <f>21</f>
@@ -7617,8 +6504,8 @@
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B281" s="8" t="s">
-        <v>233</v>
+      <c r="B281">
+        <v>531.14800000000002</v>
       </c>
       <c r="C281">
         <f>21</f>
@@ -7626,8 +6513,8 @@
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B282" s="8" t="s">
-        <v>234</v>
+      <c r="B282">
+        <v>536.23099999999999</v>
       </c>
       <c r="C282">
         <f>21</f>
@@ -7635,8 +6522,8 @@
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B283" s="8" t="s">
-        <v>235</v>
+      <c r="B283">
+        <v>537.16899999999998</v>
       </c>
       <c r="C283">
         <f>21</f>
@@ -7644,8 +6531,8 @@
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B284" s="8" t="s">
-        <v>236</v>
+      <c r="B284">
+        <v>540.50199999999995</v>
       </c>
       <c r="C284">
         <f>21</f>
@@ -7653,8 +6540,8 @@
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B285" s="8" t="s">
-        <v>237</v>
+      <c r="B285">
+        <v>542.37800000000004</v>
       </c>
       <c r="C285">
         <f>21</f>
@@ -7662,8 +6549,8 @@
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B286" s="8" t="s">
-        <v>238</v>
+      <c r="B286">
+        <v>553.63300000000004</v>
       </c>
       <c r="C286">
         <f>25</f>
@@ -7671,8 +6558,8 @@
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B287" s="8" t="s">
-        <v>239</v>
+      <c r="B287">
+        <v>557.94200000000001</v>
       </c>
       <c r="C287">
         <f>25</f>
@@ -7680,8 +6567,8 @@
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B288" s="8" t="s">
-        <v>240</v>
+      <c r="B288">
+        <v>559.87900000000002</v>
       </c>
       <c r="C288">
         <f>25</f>
@@ -7689,8 +6576,8 @@
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B289" s="8" t="s">
-        <v>241</v>
+      <c r="B289">
+        <v>560.95500000000004</v>
       </c>
       <c r="C289">
         <f>25</f>
@@ -7698,8 +6585,8 @@
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B290" s="8" t="s">
-        <v>242</v>
+      <c r="B290">
+        <v>561.221</v>
       </c>
       <c r="C290">
         <f>25</f>
@@ -7707,8 +6594,8 @@
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B291" s="8" t="s">
-        <v>243</v>
+      <c r="B291">
+        <v>563.28099999999995</v>
       </c>
       <c r="C291">
         <f>25</f>
@@ -7716,8 +6603,8 @@
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B292" s="8" t="s">
-        <v>244</v>
+      <c r="B292">
+        <v>569.48699999999997</v>
       </c>
       <c r="C292">
         <f>25</f>
@@ -7725,8 +6612,8 @@
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B293" s="8" t="s">
-        <v>245</v>
+      <c r="B293">
+        <v>570.67200000000003</v>
       </c>
       <c r="C293">
         <f>25</f>
@@ -7734,8 +6621,8 @@
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B294" s="8" t="s">
-        <v>246</v>
+      <c r="B294">
+        <v>572.91700000000003</v>
       </c>
       <c r="C294">
         <f>25</f>
@@ -7743,8 +6630,8 @@
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B295" s="8" t="s">
-        <v>246</v>
+      <c r="B295">
+        <v>572.91700000000003</v>
       </c>
       <c r="C295">
         <f>25</f>
@@ -7752,8 +6639,8 @@
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B296" s="8" t="s">
-        <v>247</v>
+      <c r="B296">
+        <v>575.89300000000003</v>
       </c>
       <c r="C296">
         <f>25</f>
@@ -7761,8 +6648,8 @@
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B297" s="8" t="s">
-        <v>248</v>
+      <c r="B297">
+        <v>582.30899999999997</v>
       </c>
       <c r="C297">
         <f>25</f>
@@ -7770,8 +6657,8 @@
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B298" s="8" t="s">
-        <v>248</v>
+      <c r="B298">
+        <v>582.30899999999997</v>
       </c>
       <c r="C298">
         <f>25</f>
@@ -7779,8 +6666,8 @@
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B299" s="8" t="s">
-        <v>248</v>
+      <c r="B299">
+        <v>582.30899999999997</v>
       </c>
       <c r="C299">
         <f>25</f>
@@ -7788,8 +6675,8 @@
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B300" s="8" t="s">
-        <v>249</v>
+      <c r="B300">
+        <v>588.23500000000001</v>
       </c>
       <c r="C300">
         <f>25</f>
@@ -7797,8 +6684,8 @@
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B301" s="8" t="s">
-        <v>250</v>
+      <c r="B301">
+        <v>590.27800000000002</v>
       </c>
       <c r="C301">
         <f>25</f>
@@ -7806,8 +6693,8 @@
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B302" s="8" t="s">
-        <v>250</v>
+      <c r="B302">
+        <v>590.27800000000002</v>
       </c>
       <c r="C302">
         <f>25</f>
@@ -7815,8 +6702,8 @@
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B303" s="8" t="s">
-        <v>251</v>
+      <c r="B303">
+        <v>591.28099999999995</v>
       </c>
       <c r="C303">
         <f>25</f>
@@ -7824,8 +6711,8 @@
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B304" s="8" t="s">
-        <v>251</v>
+      <c r="B304">
+        <v>591.28099999999995</v>
       </c>
       <c r="C304">
         <f>25</f>
@@ -7833,8 +6720,8 @@
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B305" s="8" t="s">
-        <v>252</v>
+      <c r="B305">
+        <v>593.375</v>
       </c>
       <c r="C305">
         <f>25</f>
@@ -7842,8 +6729,8 @@
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B306" s="8" t="s">
-        <v>253</v>
+      <c r="B306">
+        <v>593.84100000000001</v>
       </c>
       <c r="C306">
         <f>25</f>
@@ -7851,8 +6738,8 @@
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B307" s="8" t="s">
-        <v>253</v>
+      <c r="B307">
+        <v>593.84100000000001</v>
       </c>
       <c r="C307">
         <f>25</f>
@@ -7860,8 +6747,8 @@
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B308" s="8" t="s">
-        <v>254</v>
+      <c r="B308">
+        <v>595.31700000000001</v>
       </c>
       <c r="C308">
         <f>25</f>
@@ -7869,8 +6756,8 @@
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B309" s="8" t="s">
-        <v>255</v>
+      <c r="B309">
+        <v>597.38400000000001</v>
       </c>
       <c r="C309">
         <f>25</f>
@@ -7878,8 +6765,8 @@
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B310" s="8" t="s">
-        <v>256</v>
+      <c r="B310">
+        <v>599.39800000000002</v>
       </c>
       <c r="C310">
         <f>25</f>
@@ -7887,8 +6774,8 @@
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B311" s="8" t="s">
-        <v>257</v>
+      <c r="B311">
+        <v>604.29899999999998</v>
       </c>
       <c r="C311">
         <f>17</f>
@@ -7896,8 +6783,8 @@
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B312" s="8" t="s">
-        <v>258</v>
+      <c r="B312">
+        <v>605.28899999999999</v>
       </c>
       <c r="C312">
         <f>17</f>
@@ -7905,8 +6792,8 @@
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B313" s="8" t="s">
-        <v>258</v>
+      <c r="B313">
+        <v>605.28899999999999</v>
       </c>
       <c r="C313">
         <f>17</f>
@@ -7914,8 +6801,8 @@
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B314" s="8" t="s">
-        <v>259</v>
+      <c r="B314">
+        <v>607.39099999999996</v>
       </c>
       <c r="C314">
         <f>17</f>
@@ -7923,8 +6810,8 @@
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B315" s="8" t="s">
-        <v>259</v>
+      <c r="B315">
+        <v>607.39099999999996</v>
       </c>
       <c r="C315">
         <f>17</f>
@@ -7932,8 +6819,8 @@
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B316" s="8" t="s">
-        <v>260</v>
+      <c r="B316">
+        <v>616.072</v>
       </c>
       <c r="C316">
         <f>17</f>
@@ -7941,8 +6828,8 @@
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B317" s="8" t="s">
-        <v>261</v>
+      <c r="B317">
+        <v>616.846</v>
       </c>
       <c r="C317">
         <f>17</f>
@@ -7950,8 +6837,8 @@
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B318" s="8" t="s">
-        <v>262</v>
+      <c r="B318">
+        <v>623.798</v>
       </c>
       <c r="C318">
         <f>17</f>
@@ -7959,8 +6846,8 @@
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B319" s="8" t="s">
-        <v>263</v>
+      <c r="B319">
+        <v>625.96400000000006</v>
       </c>
       <c r="C319">
         <f>17</f>
@@ -7968,8 +6855,8 @@
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B320" s="8" t="s">
-        <v>264</v>
+      <c r="B320">
+        <v>630.90899999999999</v>
       </c>
       <c r="C320">
         <f>17</f>
@@ -7977,8 +6864,8 @@
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B321" s="8" t="s">
-        <v>265</v>
+      <c r="B321">
+        <v>631.42899999999997</v>
       </c>
       <c r="C321">
         <f>17</f>
@@ -7986,8 +6873,8 @@
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B322" s="8" t="s">
-        <v>266</v>
+      <c r="B322">
+        <v>633.62099999999998</v>
       </c>
       <c r="C322">
         <f>17</f>
@@ -7995,8 +6882,8 @@
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B323" s="8" t="s">
-        <v>266</v>
+      <c r="B323">
+        <v>633.62099999999998</v>
       </c>
       <c r="C323">
         <f>17</f>
@@ -8004,8 +6891,8 @@
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B324" s="8" t="s">
-        <v>267</v>
+      <c r="B324">
+        <v>635.75800000000004</v>
       </c>
       <c r="C324">
         <f>17</f>
@@ -8013,8 +6900,8 @@
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B325" s="8" t="s">
-        <v>268</v>
+      <c r="B325">
+        <v>638.03099999999995</v>
       </c>
       <c r="C325">
         <f>17</f>
@@ -8022,8 +6909,8 @@
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B326" s="8" t="s">
-        <v>269</v>
+      <c r="B326">
+        <v>638.36</v>
       </c>
       <c r="C326">
         <f>17</f>
@@ -8031,8 +6918,8 @@
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B327" s="8" t="s">
-        <v>270</v>
+      <c r="B327">
+        <v>644.23500000000001</v>
       </c>
       <c r="C327">
         <f>17</f>
@@ -8040,8 +6927,8 @@
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B328" s="8" t="s">
-        <v>271</v>
+      <c r="B328">
+        <v>651.553</v>
       </c>
       <c r="C328">
         <f>19</f>
@@ -8049,8 +6936,8 @@
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B329" s="8" t="s">
-        <v>272</v>
+      <c r="B329">
+        <v>656.52800000000002</v>
       </c>
       <c r="C329">
         <f>19</f>
@@ -8058,8 +6945,8 @@
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B330" s="8" t="s">
-        <v>273</v>
+      <c r="B330">
+        <v>664.68399999999997</v>
       </c>
       <c r="C330">
         <f>19</f>
@@ -8067,8 +6954,8 @@
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B331" s="8" t="s">
-        <v>274</v>
+      <c r="B331">
+        <v>666.99199999999996</v>
       </c>
       <c r="C331">
         <f>19</f>
@@ -8076,8 +6963,8 @@
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B332" s="8" t="s">
-        <v>274</v>
+      <c r="B332">
+        <v>666.99199999999996</v>
       </c>
       <c r="C332">
         <f>19</f>
@@ -8085,8 +6972,8 @@
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B333" s="8" t="s">
-        <v>275</v>
+      <c r="B333">
+        <v>667.89499999999998</v>
       </c>
       <c r="C333">
         <f>19</f>
@@ -8094,8 +6981,8 @@
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B334" s="8" t="s">
-        <v>276</v>
+      <c r="B334">
+        <v>671.851</v>
       </c>
       <c r="C334">
         <f>19</f>
@@ -8103,8 +6990,8 @@
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B335" s="8" t="s">
-        <v>277</v>
+      <c r="B335">
+        <v>677.08299999999997</v>
       </c>
       <c r="C335">
         <f>19</f>
@@ -8112,8 +6999,8 @@
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B336" s="8" t="s">
-        <v>277</v>
+      <c r="B336">
+        <v>677.08299999999997</v>
       </c>
       <c r="C336">
         <f>19</f>
@@ -8121,8 +7008,8 @@
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B337" s="8" t="s">
-        <v>278</v>
+      <c r="B337">
+        <v>677.26700000000005</v>
       </c>
       <c r="C337">
         <f>19</f>
@@ -8130,8 +7017,8 @@
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B338" s="8" t="s">
-        <v>279</v>
+      <c r="B338">
+        <v>682.46</v>
       </c>
       <c r="C338">
         <f>19</f>
@@ -8139,8 +7026,8 @@
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B339" s="8" t="s">
-        <v>280</v>
+      <c r="B339">
+        <v>682.91700000000003</v>
       </c>
       <c r="C339">
         <f>19</f>
@@ -8148,8 +7035,8 @@
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B340" s="8" t="s">
-        <v>281</v>
+      <c r="B340">
+        <v>685.08600000000001</v>
       </c>
       <c r="C340">
         <f>19</f>
@@ -8157,8 +7044,8 @@
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B341" s="8" t="s">
-        <v>282</v>
+      <c r="B341">
+        <v>689.21600000000001</v>
       </c>
       <c r="C341">
         <f>19</f>
@@ -8166,8 +7053,8 @@
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B342" s="8" t="s">
-        <v>283</v>
+      <c r="B342">
+        <v>692.04200000000003</v>
       </c>
       <c r="C342">
         <f>19</f>
@@ -8175,8 +7062,8 @@
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B343" s="8" t="s">
-        <v>283</v>
+      <c r="B343">
+        <v>692.04200000000003</v>
       </c>
       <c r="C343">
         <f>19</f>
@@ -8184,8 +7071,8 @@
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B344" s="8" t="s">
-        <v>284</v>
+      <c r="B344">
+        <v>694.44399999999996</v>
       </c>
       <c r="C344">
         <f>19</f>
@@ -8193,8 +7080,8 @@
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B345" s="8" t="s">
-        <v>285</v>
+      <c r="B345">
+        <v>694.87800000000004</v>
       </c>
       <c r="C345">
         <f>19</f>
@@ -8202,8 +7089,8 @@
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B346" s="8" t="s">
-        <v>286</v>
+      <c r="B346">
+        <v>698.03300000000002</v>
       </c>
       <c r="C346">
         <f>19</f>
@@ -8211,8 +7098,8 @@
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B347" s="8" t="s">
-        <v>287</v>
+      <c r="B347">
+        <v>711.44500000000005</v>
       </c>
       <c r="C347">
         <f>13</f>
@@ -8220,8 +7107,8 @@
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B348" s="8" t="s">
-        <v>288</v>
+      <c r="B348">
+        <v>713.34</v>
       </c>
       <c r="C348">
         <f>13</f>
@@ -8229,8 +7116,8 @@
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B349" s="8" t="s">
-        <v>289</v>
+      <c r="B349">
+        <v>719.79399999999998</v>
       </c>
       <c r="C349">
         <f>13</f>
@@ -8238,8 +7125,8 @@
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B350" s="8" t="s">
-        <v>290</v>
+      <c r="B350">
+        <v>722.51300000000003</v>
       </c>
       <c r="C350">
         <f>13</f>
@@ -8247,8 +7134,8 @@
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B351" s="8" t="s">
-        <v>291</v>
+      <c r="B351">
+        <v>723.56500000000005</v>
       </c>
       <c r="C351">
         <f>13</f>
@@ -8256,8 +7143,8 @@
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B352" s="8" t="s">
-        <v>292</v>
+      <c r="B352">
+        <v>729.16700000000003</v>
       </c>
       <c r="C352">
         <f>13</f>
@@ -8265,8 +7152,8 @@
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B353" s="8" t="s">
-        <v>292</v>
+      <c r="B353">
+        <v>729.16700000000003</v>
       </c>
       <c r="C353">
         <f>13</f>
@@ -8274,8 +7161,8 @@
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B354" s="8" t="s">
-        <v>292</v>
+      <c r="B354">
+        <v>729.16700000000003</v>
       </c>
       <c r="C354">
         <f>13</f>
@@ -8283,8 +7170,8 @@
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B355" s="8" t="s">
-        <v>292</v>
+      <c r="B355">
+        <v>729.16700000000003</v>
       </c>
       <c r="C355">
         <f>13</f>
@@ -8292,8 +7179,8 @@
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B356" s="8" t="s">
-        <v>293</v>
+      <c r="B356">
+        <v>736.57</v>
       </c>
       <c r="C356">
         <f>13</f>
@@ -8301,8 +7188,8 @@
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B357" s="8" t="s">
-        <v>293</v>
+      <c r="B357">
+        <v>736.57</v>
       </c>
       <c r="C357">
         <f>13</f>
@@ -8310,8 +7197,8 @@
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B358" s="8" t="s">
-        <v>294</v>
+      <c r="B358">
+        <v>745.72</v>
       </c>
       <c r="C358">
         <f>13</f>
@@ -8319,8 +7206,8 @@
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B359" s="8" t="s">
-        <v>295</v>
+      <c r="B359">
+        <v>748.55700000000002</v>
       </c>
       <c r="C359">
         <f>13</f>
@@ -8328,8 +7215,8 @@
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B360" s="8" t="s">
-        <v>296</v>
+      <c r="B360">
+        <v>751.15700000000004</v>
       </c>
       <c r="C360">
         <f>15</f>
@@ -8337,8 +7224,8 @@
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B361" s="8" t="s">
-        <v>297</v>
+      <c r="B361">
+        <v>758.34500000000003</v>
       </c>
       <c r="C361">
         <f>15</f>
@@ -8346,8 +7233,8 @@
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B362" s="8" t="s">
-        <v>298</v>
+      <c r="B362">
+        <v>761.51800000000003</v>
       </c>
       <c r="C362">
         <f>15</f>
@@ -8355,8 +7242,8 @@
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B363" s="8" t="s">
-        <v>299</v>
+      <c r="B363">
+        <v>762.30899999999997</v>
       </c>
       <c r="C363">
         <f>15</f>
@@ -8364,8 +7251,8 @@
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B364" s="8" t="s">
-        <v>300</v>
+      <c r="B364">
+        <v>768.60900000000004</v>
       </c>
       <c r="C364">
         <f>15</f>
@@ -8373,8 +7260,8 @@
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B365" s="8" t="s">
-        <v>301</v>
+      <c r="B365">
+        <v>769.428</v>
       </c>
       <c r="C365">
         <f>15</f>
@@ -8382,8 +7269,8 @@
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B366" s="8" t="s">
-        <v>302</v>
+      <c r="B366">
+        <v>775.17</v>
       </c>
       <c r="C366">
         <f>15</f>
@@ -8391,8 +7278,8 @@
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B367" s="8" t="s">
-        <v>303</v>
+      <c r="B367">
+        <v>776.41200000000003</v>
       </c>
       <c r="C367">
         <f>15</f>
@@ -8400,8 +7287,8 @@
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B368" s="8" t="s">
-        <v>304</v>
+      <c r="B368">
+        <v>784.48299999999995</v>
       </c>
       <c r="C368">
         <f>15</f>
@@ -8409,8 +7296,8 @@
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B369" s="8" t="s">
-        <v>304</v>
+      <c r="B369">
+        <v>784.48299999999995</v>
       </c>
       <c r="C369">
         <f>15</f>
@@ -8418,8 +7305,8 @@
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B370" s="8" t="s">
-        <v>305</v>
+      <c r="B370">
+        <v>788.76</v>
       </c>
       <c r="C370">
         <f>15</f>
@@ -8427,8 +7314,8 @@
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B371" s="8" t="s">
-        <v>306</v>
+      <c r="B371">
+        <v>791.78800000000001</v>
       </c>
       <c r="C371">
         <f>15</f>
@@ -8436,8 +7323,8 @@
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B372" s="8" t="s">
-        <v>307</v>
+      <c r="B372">
+        <v>793.31</v>
       </c>
       <c r="C372">
         <f>15</f>
@@ -8445,8 +7332,8 @@
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B373" s="8" t="s">
-        <v>307</v>
+      <c r="B373">
+        <v>793.31</v>
       </c>
       <c r="C373">
         <f>15</f>
@@ -8454,8 +7341,8 @@
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B374" s="8" t="s">
-        <v>308</v>
+      <c r="B374">
+        <v>796.6</v>
       </c>
       <c r="C374">
         <f>15</f>
@@ -8463,8 +7350,8 @@
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B375" s="8" t="s">
-        <v>309</v>
+      <c r="B375">
+        <v>814.71500000000003</v>
       </c>
       <c r="C375">
         <f>4</f>
@@ -8472,8 +7359,8 @@
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B376" s="8" t="s">
-        <v>310</v>
+      <c r="B376">
+        <v>833.33299999999997</v>
       </c>
       <c r="C376">
         <f>4</f>
@@ -8481,8 +7368,8 @@
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B377" s="8" t="s">
-        <v>311</v>
+      <c r="B377">
+        <v>834.95899999999995</v>
       </c>
       <c r="C377">
         <f>4</f>
@@ -8490,8 +7377,8 @@
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B378" s="8" t="s">
-        <v>312</v>
+      <c r="B378">
+        <v>841.43200000000002</v>
       </c>
       <c r="C378">
         <f>4</f>
@@ -8499,8 +7386,8 @@
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B379" s="8" t="s">
-        <v>313</v>
+      <c r="B379">
+        <v>867.81600000000003</v>
       </c>
       <c r="C379">
         <f>6</f>
@@ -8508,8 +7395,8 @@
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B380" s="8" t="s">
-        <v>314</v>
+      <c r="B380">
+        <v>868.05600000000004</v>
       </c>
       <c r="C380">
         <f>6</f>
@@ -8517,8 +7404,8 @@
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B381" s="8" t="s">
-        <v>315</v>
+      <c r="B381">
+        <v>873.07600000000002</v>
       </c>
       <c r="C381">
         <f>6</f>
@@ -8526,8 +7413,8 @@
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B382" s="8" t="s">
-        <v>316</v>
+      <c r="B382">
+        <v>885.24599999999998</v>
       </c>
       <c r="C382">
         <f>6</f>
@@ -8535,8 +7422,8 @@
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B383" s="8" t="s">
-        <v>317</v>
+      <c r="B383">
+        <v>896.07600000000002</v>
       </c>
       <c r="C383">
         <f>6</f>
@@ -8544,8 +7431,8 @@
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B384" s="8" t="s">
-        <v>318</v>
+      <c r="B384">
+        <v>899.09799999999996</v>
       </c>
       <c r="C384">
         <f>6</f>
@@ -8553,8 +7440,8 @@
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B385" s="8" t="s">
-        <v>319</v>
+      <c r="B385">
+        <v>941.27800000000002</v>
       </c>
       <c r="C385">
         <f>2</f>
@@ -8562,8 +7449,8 @@
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B386" s="8" t="s">
-        <v>320</v>
+      <c r="B386">
+        <v>950.43200000000002</v>
       </c>
       <c r="C386">
         <f>2</f>
@@ -8571,8 +7458,8 @@
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B387" s="8" t="s">
-        <v>321</v>
+      <c r="B387">
+        <v>957.85500000000002</v>
       </c>
       <c r="C387">
         <f>8</f>
@@ -8580,8 +7467,8 @@
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B388" s="8" t="s">
-        <v>322</v>
+      <c r="B388">
+        <v>959.54499999999996</v>
       </c>
       <c r="C388">
         <f>8</f>
@@ -8589,8 +7476,8 @@
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B389" s="8" t="s">
-        <v>323</v>
+      <c r="B389">
+        <v>960.36900000000003</v>
       </c>
       <c r="C389">
         <f>8</f>
@@ -8598,8 +7485,8 @@
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B390" s="8" t="s">
-        <v>324</v>
+      <c r="B390">
+        <v>972.99699999999996</v>
       </c>
       <c r="C390">
         <f>8</f>
@@ -8607,8 +7494,8 @@
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B391" s="8" t="s">
-        <v>325</v>
+      <c r="B391">
+        <v>978.69500000000005</v>
       </c>
       <c r="C391">
         <f>8</f>
@@ -8616,8 +7503,8 @@
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B392" s="8" t="s">
-        <v>326</v>
+      <c r="B392">
+        <v>984.79200000000003</v>
       </c>
       <c r="C392">
         <f>8</f>
@@ -8625,8 +7512,8 @@
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B393" s="8" t="s">
-        <v>327</v>
+      <c r="B393">
+        <v>990.95299999999997</v>
       </c>
       <c r="C393">
         <f>8</f>
@@ -8634,8 +7521,8 @@
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B394" s="8" t="s">
-        <v>328</v>
+      <c r="B394">
+        <v>1000.4880000000001</v>
       </c>
       <c r="C394">
         <f>8</f>
@@ -8643,8 +7530,8 @@
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B395" s="8" t="s">
-        <v>329</v>
+      <c r="B395">
+        <v>1001.843</v>
       </c>
       <c r="C395">
         <f>5</f>
@@ -8652,8 +7539,8 @@
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B396" s="8" t="s">
-        <v>330</v>
+      <c r="B396">
+        <v>1005.8440000000001</v>
       </c>
       <c r="C396">
         <f>5</f>
@@ -8661,8 +7548,8 @@
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B397" s="8" t="s">
-        <v>331</v>
+      <c r="B397">
+        <v>1017.678</v>
       </c>
       <c r="C397">
         <f>5</f>
@@ -8670,8 +7557,8 @@
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B398" s="8" t="s">
-        <v>332</v>
+      <c r="B398">
+        <v>1031.1969999999999</v>
       </c>
       <c r="C398">
         <f>5</f>
@@ -8679,8 +7566,8 @@
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B399" s="8" t="s">
-        <v>333</v>
+      <c r="B399">
+        <v>1050.673</v>
       </c>
       <c r="C399">
         <f>5</f>
@@ -8688,8 +7575,8 @@
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B400" s="8" t="s">
-        <v>334</v>
+      <c r="B400">
+        <v>1053.32</v>
       </c>
       <c r="C400">
         <f>6</f>
@@ -8697,8 +7584,8 @@
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B401" s="8" t="s">
-        <v>335</v>
+      <c r="B401">
+        <v>1054.607</v>
       </c>
       <c r="C401">
         <f>6</f>
@@ -8706,8 +7593,8 @@
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B402" s="8" t="s">
-        <v>336</v>
+      <c r="B402">
+        <v>1073.7249999999999</v>
       </c>
       <c r="C402">
         <f>6</f>
@@ -8715,8 +7602,8 @@
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B403" s="8" t="s">
-        <v>337</v>
+      <c r="B403">
+        <v>1078.068</v>
       </c>
       <c r="C403">
         <f>6</f>
@@ -8724,8 +7611,8 @@
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B404" s="8" t="s">
-        <v>338</v>
+      <c r="B404">
+        <v>1081.0029999999999</v>
       </c>
       <c r="C404">
         <f>6</f>
@@ -8733,8 +7620,8 @@
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B405" s="8" t="s">
-        <v>339</v>
+      <c r="B405">
+        <v>1093.75</v>
       </c>
       <c r="C405">
         <f>6</f>
@@ -8742,8 +7629,8 @@
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B406" s="8" t="s">
-        <v>340</v>
+      <c r="B406">
+        <v>1184.5840000000001</v>
       </c>
       <c r="C406">
         <f>16</f>
@@ -8751,8 +7638,8 @@
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B407" s="8" t="s">
-        <v>341</v>
+      <c r="B407">
+        <v>1189.9649999999999</v>
       </c>
       <c r="C407">
         <f>16</f>
@@ -8760,8 +7647,8 @@
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B408" s="8" t="s">
-        <v>342</v>
+      <c r="B408">
+        <v>1199.1500000000001</v>
       </c>
       <c r="C408">
         <f>16</f>
@@ -8769,8 +7656,8 @@
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B409" s="8" t="s">
-        <v>343</v>
+      <c r="B409">
+        <v>1202.4369999999999</v>
       </c>
       <c r="C409">
         <f>16</f>
@@ -8778,8 +7665,8 @@
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B410" s="8" t="s">
-        <v>344</v>
+      <c r="B410">
+        <v>1211.0730000000001</v>
       </c>
       <c r="C410">
         <f>16</f>
@@ -8787,8 +7674,8 @@
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B411" s="8" t="s">
-        <v>345</v>
+      <c r="B411">
+        <v>1215.8979999999999</v>
       </c>
       <c r="C411">
         <f>16</f>
@@ -8796,8 +7683,8 @@
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B412" s="8" t="s">
-        <v>346</v>
+      <c r="B412">
+        <v>1232.2460000000001</v>
       </c>
       <c r="C412">
         <f>16</f>
@@ -8805,7 +7692,7 @@
       </c>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B413" s="8">
+      <c r="B413">
         <v>1250</v>
       </c>
       <c r="C413">
@@ -8814,8 +7701,8 @@
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B414" s="8" t="s">
-        <v>347</v>
+      <c r="B414">
+        <v>1324.405</v>
       </c>
       <c r="C414">
         <f>16</f>
@@ -8823,8 +7710,8 @@
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B415" s="8" t="s">
-        <v>348</v>
+      <c r="B415">
+        <v>1354.1669999999999</v>
       </c>
       <c r="C415">
         <f>16</f>
@@ -8832,8 +7719,8 @@
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B416" s="8" t="s">
-        <v>348</v>
+      <c r="B416">
+        <v>1354.1669999999999</v>
       </c>
       <c r="C416">
         <f>16</f>
@@ -8841,8 +7728,8 @@
       </c>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B417" s="8" t="s">
-        <v>349</v>
+      <c r="B417">
+        <v>1421.598</v>
       </c>
       <c r="C417">
         <f>16</f>
@@ -8850,8 +7737,8 @@
       </c>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B418" s="8" t="s">
-        <v>350</v>
+      <c r="B418">
+        <v>1453.287</v>
       </c>
       <c r="C418">
         <f>16</f>
@@ -8859,8 +7746,8 @@
       </c>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B419" s="8" t="s">
-        <v>351</v>
+      <c r="B419">
+        <v>1506.9770000000001</v>
       </c>
       <c r="C419">
         <f>16</f>
@@ -8868,8 +7755,8 @@
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B420" s="8" t="s">
-        <v>352</v>
+      <c r="B420">
+        <v>1570.2929999999999</v>
       </c>
       <c r="C420">
         <f>16</f>
@@ -8877,8 +7764,8 @@
       </c>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B421" s="8" t="s">
-        <v>353</v>
+      <c r="B421">
+        <v>3719.8589999999999</v>
       </c>
       <c r="C421">
         <f>16</f>
@@ -8886,7 +7773,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B421">
+  <sortState ref="B2:B421">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8896,7 +7783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N327"/>
   <sheetViews>
     <sheetView topLeftCell="E34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12245,7 +11132,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B421">
+  <sortState ref="B2:B421">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12255,7 +11142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N250"/>
   <sheetViews>
     <sheetView topLeftCell="E28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14910,7 +13797,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B571">
+  <sortState ref="B2:B571">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14920,7 +13807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N185"/>
   <sheetViews>
     <sheetView topLeftCell="H23" workbookViewId="0">
@@ -16990,7 +15877,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B302">
+  <sortState ref="B2:B302">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17000,7 +15887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N341"/>
   <sheetViews>
     <sheetView topLeftCell="H40" workbookViewId="0">
@@ -20476,7 +19363,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B493">
+  <sortState ref="B2:B493">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
